--- a/data/3.mental_population_merge_data/mental_population_merge_y65.xlsx
+++ b/data/3.mental_population_merge_data/mental_population_merge_y65.xlsx
@@ -552,67 +552,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.70794949438456</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n">
-        <v>252.4748124415753</v>
+        <v>948</v>
       </c>
       <c r="D2" t="n">
-        <v>220.5159754236543</v>
+        <v>828</v>
       </c>
       <c r="E2" t="n">
-        <v>92.41430371015466</v>
+        <v>347</v>
       </c>
       <c r="F2" t="n">
-        <v>597.6302522351212</v>
+        <v>2244</v>
       </c>
       <c r="G2" t="n">
-        <v>197.6121422274777</v>
+        <v>742</v>
       </c>
       <c r="H2" t="n">
-        <v>38.3506044215051</v>
+        <v>144</v>
       </c>
       <c r="I2" t="n">
-        <v>525.9891925866151</v>
+        <v>1975</v>
       </c>
       <c r="J2" t="n">
-        <v>508.4118322267586</v>
+        <v>1909</v>
       </c>
       <c r="K2" t="n">
-        <v>19.17530221075255</v>
+        <v>72</v>
       </c>
       <c r="L2" t="n">
-        <v>32.75780794336894</v>
+        <v>123</v>
       </c>
       <c r="M2" t="n">
-        <v>37.81795713787309</v>
+        <v>142</v>
       </c>
       <c r="N2" t="n">
-        <v>206.1344987655899</v>
+        <v>774</v>
       </c>
       <c r="O2" t="n">
-        <v>7.723385612664222</v>
+        <v>29</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2663236418160077</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2663236418160077</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>440.7656272054926</v>
+        <v>1655</v>
       </c>
       <c r="S2" t="n">
-        <v>289.4937986540003</v>
+        <v>1087</v>
       </c>
       <c r="T2" t="n">
-        <v>49695.72523922521</v>
+        <v>186599</v>
       </c>
       <c r="U2" t="n">
-        <v>50304.2747607748</v>
+        <v>188884</v>
       </c>
       <c r="V2" t="n">
-        <v>100000</v>
+        <v>375483</v>
       </c>
     </row>
     <row r="3">
@@ -622,67 +622,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.48431665831636</v>
+        <v>190</v>
       </c>
       <c r="C3" t="n">
-        <v>1724.308173915588</v>
+        <v>4715</v>
       </c>
       <c r="D3" t="n">
-        <v>231.8581934809083</v>
+        <v>634</v>
       </c>
       <c r="E3" t="n">
-        <v>1462.096305262889</v>
+        <v>3998</v>
       </c>
       <c r="F3" t="n">
-        <v>416.9058999498982</v>
+        <v>1140</v>
       </c>
       <c r="G3" t="n">
-        <v>72.77567902634188</v>
+        <v>199</v>
       </c>
       <c r="H3" t="n">
-        <v>58.51310876489799</v>
+        <v>160</v>
       </c>
       <c r="I3" t="n">
-        <v>911.7073759430667</v>
+        <v>2493</v>
       </c>
       <c r="J3" t="n">
-        <v>419.4658484583625</v>
+        <v>1147</v>
       </c>
       <c r="K3" t="n">
-        <v>64.7301265711684</v>
+        <v>177</v>
       </c>
       <c r="L3" t="n">
-        <v>44.2505385034541</v>
+        <v>121</v>
       </c>
       <c r="M3" t="n">
-        <v>113.3691482319898</v>
+        <v>310</v>
       </c>
       <c r="N3" t="n">
-        <v>166.030946120398</v>
+        <v>454</v>
       </c>
       <c r="O3" t="n">
-        <v>12.43403561254082</v>
+        <v>34</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.097120789341837</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>571.5999312470972</v>
+        <v>1563</v>
       </c>
       <c r="S3" t="n">
-        <v>191.9961381348215</v>
+        <v>525</v>
       </c>
       <c r="T3" t="n">
-        <v>47810.69546486836</v>
+        <v>130735</v>
       </c>
       <c r="U3" t="n">
-        <v>52189.30453513163</v>
+        <v>142708</v>
       </c>
       <c r="V3" t="n">
-        <v>100000</v>
+        <v>273443</v>
       </c>
     </row>
     <row r="4">
@@ -692,67 +692,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.50375538038838</v>
+        <v>3278</v>
       </c>
       <c r="C4" t="n">
-        <v>34.07216255307778</v>
+        <v>1877</v>
       </c>
       <c r="D4" t="n">
-        <v>37.17623276968743</v>
+        <v>2048</v>
       </c>
       <c r="E4" t="n">
-        <v>59.48560292298131</v>
+        <v>3277</v>
       </c>
       <c r="F4" t="n">
-        <v>255.5502953767869</v>
+        <v>14078</v>
       </c>
       <c r="G4" t="n">
-        <v>61.73650764145847</v>
+        <v>3401</v>
       </c>
       <c r="H4" t="n">
-        <v>56.27261796192921</v>
+        <v>3100</v>
       </c>
       <c r="I4" t="n">
-        <v>319.3380307052448</v>
+        <v>17592</v>
       </c>
       <c r="J4" t="n">
-        <v>279.5841489837528</v>
+        <v>15402</v>
       </c>
       <c r="K4" t="n">
-        <v>38.2472277567048</v>
+        <v>2107</v>
       </c>
       <c r="L4" t="n">
-        <v>21.111307964427</v>
+        <v>1163</v>
       </c>
       <c r="M4" t="n">
-        <v>55.70989178230992</v>
+        <v>3069</v>
       </c>
       <c r="N4" t="n">
-        <v>105.9740463424977</v>
+        <v>5838</v>
       </c>
       <c r="O4" t="n">
-        <v>3.630491481414788</v>
+        <v>200</v>
       </c>
       <c r="P4" t="n">
-        <v>2.123837516627651</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.886240727724756</v>
+        <v>159</v>
       </c>
       <c r="R4" t="n">
-        <v>171.0506061468577</v>
+        <v>9423</v>
       </c>
       <c r="S4" t="n">
-        <v>137.0329009660012</v>
+        <v>7549</v>
       </c>
       <c r="T4" t="n">
-        <v>46859.27997188547</v>
+        <v>2581429</v>
       </c>
       <c r="U4" t="n">
-        <v>53140.72002811453</v>
+        <v>2927467</v>
       </c>
       <c r="V4" t="n">
-        <v>100000</v>
+        <v>5508896</v>
       </c>
     </row>
     <row r="5">
@@ -762,67 +762,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.74642874092354</v>
+        <v>138</v>
       </c>
       <c r="C5" t="n">
-        <v>190.7835413601633</v>
+        <v>804</v>
       </c>
       <c r="D5" t="n">
-        <v>449.9074557448626</v>
+        <v>1896</v>
       </c>
       <c r="E5" t="n">
-        <v>181.7664088083147</v>
+        <v>766</v>
       </c>
       <c r="F5" t="n">
-        <v>518.9597076550709</v>
+        <v>2187</v>
       </c>
       <c r="G5" t="n">
-        <v>166.1050733235252</v>
+        <v>700</v>
       </c>
       <c r="H5" t="n">
-        <v>28.47515542689004</v>
+        <v>120</v>
       </c>
       <c r="I5" t="n">
-        <v>279.7684020691946</v>
+        <v>1179</v>
       </c>
       <c r="J5" t="n">
-        <v>232.3098096910446</v>
+        <v>979</v>
       </c>
       <c r="K5" t="n">
-        <v>16.13592140857102</v>
+        <v>68</v>
       </c>
       <c r="L5" t="n">
-        <v>5.220445161596508</v>
+        <v>22</v>
       </c>
       <c r="M5" t="n">
-        <v>31.55996393146979</v>
+        <v>133</v>
       </c>
       <c r="N5" t="n">
-        <v>51.72986569218357</v>
+        <v>218</v>
       </c>
       <c r="O5" t="n">
-        <v>14.23757771344502</v>
+        <v>60</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.81381994210052</v>
+        <v>54</v>
       </c>
       <c r="R5" t="n">
-        <v>308.0062645341939</v>
+        <v>1298</v>
       </c>
       <c r="S5" t="n">
-        <v>245.8355085188174</v>
+        <v>1036</v>
       </c>
       <c r="T5" t="n">
-        <v>50078.30667742394</v>
+        <v>211040</v>
       </c>
       <c r="U5" t="n">
-        <v>49921.69332257606</v>
+        <v>210380</v>
       </c>
       <c r="V5" t="n">
-        <v>100000</v>
+        <v>421420</v>
       </c>
     </row>
     <row r="6">
@@ -832,67 +832,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.43908210391765</v>
+        <v>969</v>
       </c>
       <c r="C6" t="n">
-        <v>367.9370417430692</v>
+        <v>5803</v>
       </c>
       <c r="D6" t="n">
-        <v>189.2628071003036</v>
+        <v>2985</v>
       </c>
       <c r="E6" t="n">
-        <v>111.0849038659068</v>
+        <v>1752</v>
       </c>
       <c r="F6" t="n">
-        <v>567.6616120499223</v>
+        <v>8953</v>
       </c>
       <c r="G6" t="n">
-        <v>182.1614890449488</v>
+        <v>2873</v>
       </c>
       <c r="H6" t="n">
-        <v>41.27641119674962</v>
+        <v>651</v>
       </c>
       <c r="I6" t="n">
-        <v>467.9261361474842</v>
+        <v>7380</v>
       </c>
       <c r="J6" t="n">
-        <v>310.048618666829</v>
+        <v>4890</v>
       </c>
       <c r="K6" t="n">
-        <v>22.95247442891454</v>
+        <v>362</v>
       </c>
       <c r="L6" t="n">
-        <v>28.4052722214191</v>
+        <v>448</v>
       </c>
       <c r="M6" t="n">
-        <v>21.1137402895816</v>
+        <v>333</v>
       </c>
       <c r="N6" t="n">
-        <v>155.3413324608857</v>
+        <v>2450</v>
       </c>
       <c r="O6" t="n">
-        <v>21.1137402895816</v>
+        <v>333</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3170231274711953</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.268092509884781</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>366.7323538586787</v>
+        <v>5784</v>
       </c>
       <c r="S6" t="n">
-        <v>337.4394168803402</v>
+        <v>5322</v>
       </c>
       <c r="T6" t="n">
-        <v>49558.19656955614</v>
+        <v>781618</v>
       </c>
       <c r="U6" t="n">
-        <v>50441.80343044386</v>
+        <v>795554</v>
       </c>
       <c r="V6" t="n">
-        <v>100000</v>
+        <v>1577172</v>
       </c>
     </row>
     <row r="7">
@@ -902,67 +902,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.78480226245529</v>
+        <v>434</v>
       </c>
       <c r="C7" t="n">
-        <v>191.0634118387684</v>
+        <v>1387</v>
       </c>
       <c r="D7" t="n">
-        <v>149.1864996549288</v>
+        <v>1083</v>
       </c>
       <c r="E7" t="n">
-        <v>228.3944750026517</v>
+        <v>1658</v>
       </c>
       <c r="F7" t="n">
-        <v>282.1181452384986</v>
+        <v>2048</v>
       </c>
       <c r="G7" t="n">
-        <v>136.9264826011072</v>
+        <v>994</v>
       </c>
       <c r="H7" t="n">
-        <v>50.41759822133325</v>
+        <v>366</v>
       </c>
       <c r="I7" t="n">
-        <v>471.5285210700102</v>
+        <v>3423</v>
       </c>
       <c r="J7" t="n">
-        <v>263.6592431574641</v>
+        <v>1914</v>
       </c>
       <c r="K7" t="n">
-        <v>45.73399620077224</v>
+        <v>332</v>
       </c>
       <c r="L7" t="n">
-        <v>33.1984731457413</v>
+        <v>241</v>
       </c>
       <c r="M7" t="n">
-        <v>27.4128471203424</v>
+        <v>199</v>
       </c>
       <c r="N7" t="n">
-        <v>164.8903417238686</v>
+        <v>1197</v>
       </c>
       <c r="O7" t="n">
-        <v>11.43349905019306</v>
+        <v>83</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5510120024189427</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6887650030236784</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>514.5074572586877</v>
+        <v>3735</v>
       </c>
       <c r="S7" t="n">
-        <v>258.4246291344841</v>
+        <v>1876</v>
       </c>
       <c r="T7" t="n">
-        <v>48964.71732395511</v>
+        <v>355453</v>
       </c>
       <c r="U7" t="n">
-        <v>51035.28267604489</v>
+        <v>370484</v>
       </c>
       <c r="V7" t="n">
-        <v>100000</v>
+        <v>725937</v>
       </c>
     </row>
     <row r="8">
@@ -972,67 +972,67 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.0796594080994</v>
+        <v>345</v>
       </c>
       <c r="C8" t="n">
-        <v>129.6955912897193</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>220.8584344426379</v>
+        <v>705</v>
       </c>
       <c r="E8" t="n">
-        <v>216.1593188161988</v>
+        <v>690</v>
       </c>
       <c r="F8" t="n">
-        <v>378.7487194909918</v>
+        <v>1209</v>
       </c>
       <c r="G8" t="n">
-        <v>118.1044394111695</v>
+        <v>377</v>
       </c>
       <c r="H8" t="n">
-        <v>16.60354188008483</v>
+        <v>53</v>
       </c>
       <c r="I8" t="n">
-        <v>738.0744277260353</v>
+        <v>2356</v>
       </c>
       <c r="J8" t="n">
-        <v>851.4797515107657</v>
+        <v>2718</v>
       </c>
       <c r="K8" t="n">
-        <v>16.91681625518077</v>
+        <v>54</v>
       </c>
       <c r="L8" t="n">
-        <v>7.518585002302566</v>
+        <v>24</v>
       </c>
       <c r="M8" t="n">
-        <v>15.66371875479701</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>48.55752813987074</v>
+        <v>155</v>
       </c>
       <c r="O8" t="n">
-        <v>14.41062125441325</v>
+        <v>46</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9398231252878207</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.879646250575641</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>1898.129438706302</v>
+        <v>6059</v>
       </c>
       <c r="S8" t="n">
-        <v>305.4425157185418</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
-        <v>47998.0201059494</v>
+        <v>153214</v>
       </c>
       <c r="U8" t="n">
-        <v>52001.97989405061</v>
+        <v>165995</v>
       </c>
       <c r="V8" t="n">
-        <v>100000</v>
+        <v>319209</v>
       </c>
     </row>
     <row r="9">
@@ -1042,67 +1042,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.68694234728895</v>
+        <v>321</v>
       </c>
       <c r="C9" t="n">
-        <v>322.2589224433768</v>
+        <v>3606</v>
       </c>
       <c r="D9" t="n">
-        <v>258.4505833905284</v>
+        <v>2892</v>
       </c>
       <c r="E9" t="n">
-        <v>402.7789693433997</v>
+        <v>4507</v>
       </c>
       <c r="F9" t="n">
-        <v>405.3706245710364</v>
+        <v>4536</v>
       </c>
       <c r="G9" t="n">
-        <v>267.3873255547929</v>
+        <v>2992</v>
       </c>
       <c r="H9" t="n">
-        <v>22.69932509723175</v>
+        <v>254</v>
       </c>
       <c r="I9" t="n">
-        <v>537.545041180508</v>
+        <v>6015</v>
       </c>
       <c r="J9" t="n">
-        <v>389.7313257835736</v>
+        <v>4361</v>
       </c>
       <c r="K9" t="n">
-        <v>22.87805994051704</v>
+        <v>256</v>
       </c>
       <c r="L9" t="n">
-        <v>21.53754861587737</v>
+        <v>241</v>
       </c>
       <c r="M9" t="n">
-        <v>24.21857126515672</v>
+        <v>271</v>
       </c>
       <c r="N9" t="n">
-        <v>97.49985701212537</v>
+        <v>1091</v>
       </c>
       <c r="O9" t="n">
-        <v>10.27725348890414</v>
+        <v>115</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0893674216426447</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9830416380690917</v>
+        <v>11</v>
       </c>
       <c r="R9" t="n">
-        <v>424.7633550674903</v>
+        <v>4753</v>
       </c>
       <c r="S9" t="n">
-        <v>244.7773678792039</v>
+        <v>2739</v>
       </c>
       <c r="T9" t="n">
-        <v>49319.82455387784</v>
+        <v>551877</v>
       </c>
       <c r="U9" t="n">
-        <v>50680.17544612216</v>
+        <v>567099</v>
       </c>
       <c r="V9" t="n">
-        <v>100000</v>
+        <v>1118976</v>
       </c>
     </row>
     <row r="10">
@@ -1112,67 +1112,67 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.38175272796494</v>
+        <v>420</v>
       </c>
       <c r="C10" t="n">
-        <v>182.8907563652515</v>
+        <v>980</v>
       </c>
       <c r="D10" t="n">
-        <v>108.6147144944657</v>
+        <v>582</v>
       </c>
       <c r="E10" t="n">
-        <v>223.7612417162618</v>
+        <v>1199</v>
       </c>
       <c r="F10" t="n">
-        <v>373.2464415617378</v>
+        <v>2000</v>
       </c>
       <c r="G10" t="n">
-        <v>143.5132567804882</v>
+        <v>769</v>
       </c>
       <c r="H10" t="n">
-        <v>95.73771226058574</v>
+        <v>513</v>
       </c>
       <c r="I10" t="n">
-        <v>599.8070315897126</v>
+        <v>3214</v>
       </c>
       <c r="J10" t="n">
-        <v>489.699331329</v>
+        <v>2624</v>
       </c>
       <c r="K10" t="n">
-        <v>47.02905163677896</v>
+        <v>252</v>
       </c>
       <c r="L10" t="n">
-        <v>60.46592353300152</v>
+        <v>324</v>
       </c>
       <c r="M10" t="n">
-        <v>39.00425314320159</v>
+        <v>209</v>
       </c>
       <c r="N10" t="n">
-        <v>149.8584462870377</v>
+        <v>803</v>
       </c>
       <c r="O10" t="n">
-        <v>31.53932431196684</v>
+        <v>169</v>
       </c>
       <c r="P10" t="n">
-        <v>2.612725090932164</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7464928831234755</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>696.8511063957644</v>
+        <v>3734</v>
       </c>
       <c r="S10" t="n">
-        <v>392.841879743729</v>
+        <v>2105</v>
       </c>
       <c r="T10" t="n">
-        <v>48861.13179518474</v>
+        <v>261817</v>
       </c>
       <c r="U10" t="n">
-        <v>51138.86820481526</v>
+        <v>274022</v>
       </c>
       <c r="V10" t="n">
-        <v>100000</v>
+        <v>535839</v>
       </c>
     </row>
     <row r="11">
@@ -1182,67 +1182,67 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.6354629721695</v>
+        <v>3001</v>
       </c>
       <c r="C11" t="n">
-        <v>367.6137893435013</v>
+        <v>6581</v>
       </c>
       <c r="D11" t="n">
-        <v>191.0407475390935</v>
+        <v>3420</v>
       </c>
       <c r="E11" t="n">
-        <v>436.6007259548406</v>
+        <v>7816</v>
       </c>
       <c r="F11" t="n">
-        <v>389.0639785408732</v>
+        <v>6965</v>
       </c>
       <c r="G11" t="n">
-        <v>150.0954645139018</v>
+        <v>2687</v>
       </c>
       <c r="H11" t="n">
-        <v>144.8446369499619</v>
+        <v>2593</v>
       </c>
       <c r="I11" t="n">
-        <v>1205.120785791931</v>
+        <v>21574</v>
       </c>
       <c r="J11" t="n">
-        <v>828.5694176161913</v>
+        <v>14833</v>
       </c>
       <c r="K11" t="n">
-        <v>60.10521764680252</v>
+        <v>1076</v>
       </c>
       <c r="L11" t="n">
-        <v>104.3462328663821</v>
+        <v>1868</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7099230586182</v>
+        <v>2698</v>
       </c>
       <c r="N11" t="n">
-        <v>384.9862081986645</v>
+        <v>6892</v>
       </c>
       <c r="O11" t="n">
-        <v>10.11063605396957</v>
+        <v>181</v>
       </c>
       <c r="P11" t="n">
-        <v>1.564076295641701</v>
+        <v>28</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.239872326686382</v>
+        <v>58</v>
       </c>
       <c r="R11" t="n">
-        <v>784.9987208090296</v>
+        <v>14053</v>
       </c>
       <c r="S11" t="n">
-        <v>459.1122526385409</v>
+        <v>8219</v>
       </c>
       <c r="T11" t="n">
-        <v>48263.81945197</v>
+        <v>864016</v>
       </c>
       <c r="U11" t="n">
-        <v>51736.18054802999</v>
+        <v>926178</v>
       </c>
       <c r="V11" t="n">
-        <v>100000</v>
+        <v>1790194</v>
       </c>
     </row>
     <row r="12">
@@ -1252,67 +1252,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.20672472453822</v>
+        <v>756</v>
       </c>
       <c r="C12" t="n">
-        <v>240.9111662210054</v>
+        <v>3129</v>
       </c>
       <c r="D12" t="n">
-        <v>203.6465435137613</v>
+        <v>2645</v>
       </c>
       <c r="E12" t="n">
-        <v>315.9023697682279</v>
+        <v>4103</v>
       </c>
       <c r="F12" t="n">
-        <v>377.3428014219072</v>
+        <v>4901</v>
       </c>
       <c r="G12" t="n">
-        <v>103.40162871039</v>
+        <v>1343</v>
       </c>
       <c r="H12" t="n">
-        <v>48.58259695923758</v>
+        <v>631</v>
       </c>
       <c r="I12" t="n">
-        <v>767.1584724276439</v>
+        <v>9964</v>
       </c>
       <c r="J12" t="n">
-        <v>523.5525504323543</v>
+        <v>6800</v>
       </c>
       <c r="K12" t="n">
-        <v>26.17762752161772</v>
+        <v>340</v>
       </c>
       <c r="L12" t="n">
-        <v>45.50287607434138</v>
+        <v>591</v>
       </c>
       <c r="M12" t="n">
-        <v>49.19854113621683</v>
+        <v>639</v>
       </c>
       <c r="N12" t="n">
-        <v>203.6465435137613</v>
+        <v>2645</v>
       </c>
       <c r="O12" t="n">
-        <v>12.2418905174624</v>
+        <v>159</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1539860442448101</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9239162654688606</v>
+        <v>12</v>
       </c>
       <c r="R12" t="n">
-        <v>399.9017569037719</v>
+        <v>5194</v>
       </c>
       <c r="S12" t="n">
-        <v>337.3834229403789</v>
+        <v>4382</v>
       </c>
       <c r="T12" t="n">
-        <v>48551.56877132226</v>
+        <v>630597</v>
       </c>
       <c r="U12" t="n">
-        <v>51448.43122867775</v>
+        <v>668222</v>
       </c>
       <c r="V12" t="n">
-        <v>100000</v>
+        <v>1298819</v>
       </c>
     </row>
     <row r="13">
@@ -1322,67 +1322,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.64710738241953</v>
+        <v>901</v>
       </c>
       <c r="C13" t="n">
-        <v>88.71150778756265</v>
+        <v>1411</v>
       </c>
       <c r="D13" t="n">
-        <v>62.30553098332714</v>
+        <v>991</v>
       </c>
       <c r="E13" t="n">
-        <v>80.66397199960517</v>
+        <v>1283</v>
       </c>
       <c r="F13" t="n">
-        <v>214.0770262343379</v>
+        <v>3405</v>
       </c>
       <c r="G13" t="n">
-        <v>120.4615513259887</v>
+        <v>1916</v>
       </c>
       <c r="H13" t="n">
-        <v>37.34559576599023</v>
+        <v>594</v>
       </c>
       <c r="I13" t="n">
-        <v>371.8213019529735</v>
+        <v>5914</v>
       </c>
       <c r="J13" t="n">
-        <v>329.6974818128835</v>
+        <v>5244</v>
       </c>
       <c r="K13" t="n">
-        <v>36.46539653918238</v>
+        <v>580</v>
       </c>
       <c r="L13" t="n">
-        <v>20.55893908329766</v>
+        <v>327</v>
       </c>
       <c r="M13" t="n">
-        <v>47.59362962096736</v>
+        <v>757</v>
       </c>
       <c r="N13" t="n">
-        <v>75.82287625216199</v>
+        <v>1206</v>
       </c>
       <c r="O13" t="n">
-        <v>10.37377660166395</v>
+        <v>165</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1886141200302537</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.778224374099761</v>
+        <v>76</v>
       </c>
       <c r="R13" t="n">
-        <v>503.0338581206866</v>
+        <v>8001</v>
       </c>
       <c r="S13" t="n">
-        <v>269.7181916432628</v>
+        <v>4290</v>
       </c>
       <c r="T13" t="n">
-        <v>48795.60453654682</v>
+        <v>776118</v>
       </c>
       <c r="U13" t="n">
-        <v>51204.39546345319</v>
+        <v>814431</v>
       </c>
       <c r="V13" t="n">
-        <v>100000</v>
+        <v>1590549</v>
       </c>
     </row>
     <row r="14">
@@ -1392,67 +1392,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.09936561773758</v>
+        <v>296</v>
       </c>
       <c r="C14" t="n">
-        <v>93.03749764462032</v>
+        <v>474</v>
       </c>
       <c r="D14" t="n">
-        <v>216.4986495823127</v>
+        <v>1103</v>
       </c>
       <c r="E14" t="n">
-        <v>217.480057785315</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="n">
-        <v>410.4249104955719</v>
+        <v>2091</v>
       </c>
       <c r="G14" t="n">
-        <v>193.5336976320583</v>
+        <v>986</v>
       </c>
       <c r="H14" t="n">
-        <v>73.21305194397337</v>
+        <v>373</v>
       </c>
       <c r="I14" t="n">
-        <v>475.9829784561271</v>
+        <v>2425</v>
       </c>
       <c r="J14" t="n">
-        <v>468.1317128321085</v>
+        <v>2385</v>
       </c>
       <c r="K14" t="n">
-        <v>52.99604296212549</v>
+        <v>270</v>
       </c>
       <c r="L14" t="n">
-        <v>28.06827460586646</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>56.52911249293386</v>
+        <v>288</v>
       </c>
       <c r="N14" t="n">
-        <v>184.8973054456378</v>
+        <v>942</v>
       </c>
       <c r="O14" t="n">
-        <v>10.79549023302556</v>
+        <v>55</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5888449218013944</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>624.3718987500785</v>
+        <v>3181</v>
       </c>
       <c r="S14" t="n">
-        <v>376.4681866716915</v>
+        <v>1918</v>
       </c>
       <c r="T14" t="n">
-        <v>49307.91093524276</v>
+        <v>251210</v>
       </c>
       <c r="U14" t="n">
-        <v>50692.08906475724</v>
+        <v>258262</v>
       </c>
       <c r="V14" t="n">
-        <v>100000</v>
+        <v>509472</v>
       </c>
     </row>
     <row r="15">
@@ -1462,67 +1462,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.00381937520941</v>
+        <v>253</v>
       </c>
       <c r="C15" t="n">
-        <v>389.3378173647956</v>
+        <v>3788</v>
       </c>
       <c r="D15" t="n">
-        <v>236.5011398512129</v>
+        <v>2301</v>
       </c>
       <c r="E15" t="n">
-        <v>353.8780636713282</v>
+        <v>3443</v>
       </c>
       <c r="F15" t="n">
-        <v>486.9806173902855</v>
+        <v>4738</v>
       </c>
       <c r="G15" t="n">
-        <v>419.2473487410246</v>
+        <v>4079</v>
       </c>
       <c r="H15" t="n">
-        <v>23.94818147993595</v>
+        <v>233</v>
       </c>
       <c r="I15" t="n">
-        <v>341.8525819839784</v>
+        <v>3326</v>
       </c>
       <c r="J15" t="n">
-        <v>526.6544287690635</v>
+        <v>5124</v>
       </c>
       <c r="K15" t="n">
-        <v>14.59502905644165</v>
+        <v>142</v>
       </c>
       <c r="L15" t="n">
-        <v>10.38097137113103</v>
+        <v>101</v>
       </c>
       <c r="M15" t="n">
-        <v>15.10893853026002</v>
+        <v>147</v>
       </c>
       <c r="N15" t="n">
-        <v>66.39710401733315</v>
+        <v>646</v>
       </c>
       <c r="O15" t="n">
-        <v>11.40879031876777</v>
+        <v>111</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2055637895273472</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5139094738183679</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>481.5331769678108</v>
+        <v>4685</v>
       </c>
       <c r="S15" t="n">
-        <v>245.2376009061252</v>
+        <v>2386</v>
       </c>
       <c r="T15" t="n">
-        <v>49361.31330593853</v>
+        <v>480253</v>
       </c>
       <c r="U15" t="n">
-        <v>50638.68669406146</v>
+        <v>492681</v>
       </c>
       <c r="V15" t="n">
-        <v>100000</v>
+        <v>972934</v>
       </c>
     </row>
     <row r="16">
@@ -1532,67 +1532,67 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.35768422357588</v>
+        <v>180</v>
       </c>
       <c r="C16" t="n">
-        <v>286.9644597968004</v>
+        <v>2037</v>
       </c>
       <c r="D16" t="n">
-        <v>153.5548655760984</v>
+        <v>1090</v>
       </c>
       <c r="E16" t="n">
-        <v>361.7696282563493</v>
+        <v>2568</v>
       </c>
       <c r="F16" t="n">
-        <v>281.1885428347637</v>
+        <v>1996</v>
       </c>
       <c r="G16" t="n">
-        <v>129.8876936340943</v>
+        <v>922</v>
       </c>
       <c r="H16" t="n">
-        <v>30.71097311521968</v>
+        <v>218</v>
       </c>
       <c r="I16" t="n">
-        <v>460.6645967282952</v>
+        <v>3270</v>
       </c>
       <c r="J16" t="n">
-        <v>326.2688703433431</v>
+        <v>2316</v>
       </c>
       <c r="K16" t="n">
-        <v>17.04599883918157</v>
+        <v>121</v>
       </c>
       <c r="L16" t="n">
-        <v>25.21680820011157</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
-        <v>17.18687486264588</v>
+        <v>122</v>
       </c>
       <c r="N16" t="n">
-        <v>75.3686725534061</v>
+        <v>535</v>
       </c>
       <c r="O16" t="n">
-        <v>20.1452713553964</v>
+        <v>143</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7043801173215524</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>702.407852993052</v>
+        <v>4986</v>
       </c>
       <c r="S16" t="n">
-        <v>327.6776305779861</v>
+        <v>2326</v>
       </c>
       <c r="T16" t="n">
-        <v>49334.21991310767</v>
+        <v>350196</v>
       </c>
       <c r="U16" t="n">
-        <v>50665.78008689233</v>
+        <v>359648</v>
       </c>
       <c r="V16" t="n">
-        <v>100000</v>
+        <v>709844</v>
       </c>
     </row>
     <row r="17">
@@ -1602,67 +1602,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.58745590446853</v>
+        <v>363</v>
       </c>
       <c r="C17" t="n">
-        <v>193.5451409659367</v>
+        <v>1731</v>
       </c>
       <c r="D17" t="n">
-        <v>188.8490716877338</v>
+        <v>1689</v>
       </c>
       <c r="E17" t="n">
-        <v>971.7509070681434</v>
+        <v>8691</v>
       </c>
       <c r="F17" t="n">
-        <v>279.7515555729484</v>
+        <v>2502</v>
       </c>
       <c r="G17" t="n">
-        <v>92.91508500444449</v>
+        <v>831</v>
       </c>
       <c r="H17" t="n">
-        <v>38.68666595852923</v>
+        <v>346</v>
       </c>
       <c r="I17" t="n">
-        <v>470.1659836867498</v>
+        <v>4205</v>
       </c>
       <c r="J17" t="n">
-        <v>306.4744259893891</v>
+        <v>2741</v>
       </c>
       <c r="K17" t="n">
-        <v>34.66146372006954</v>
+        <v>310</v>
       </c>
       <c r="L17" t="n">
-        <v>28.06460449592728</v>
+        <v>251</v>
       </c>
       <c r="M17" t="n">
-        <v>36.67406483929939</v>
+        <v>328</v>
       </c>
       <c r="N17" t="n">
-        <v>113.264718543324</v>
+        <v>1013</v>
       </c>
       <c r="O17" t="n">
-        <v>11.85198436879798</v>
+        <v>106</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4472446931621877</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>966.9430266166498</v>
+        <v>8648</v>
       </c>
       <c r="S17" t="n">
-        <v>293.6161410609762</v>
+        <v>2626</v>
       </c>
       <c r="T17" t="n">
-        <v>50166.54274261627</v>
+        <v>448672</v>
       </c>
       <c r="U17" t="n">
-        <v>49833.45725738373</v>
+        <v>445693</v>
       </c>
       <c r="V17" t="n">
-        <v>100000</v>
+        <v>894365</v>
       </c>
     </row>
     <row r="18">
@@ -1672,67 +1672,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125.0226652548918</v>
+        <v>2234</v>
       </c>
       <c r="C18" t="n">
-        <v>266.1068815071667</v>
+        <v>4755</v>
       </c>
       <c r="D18" t="n">
-        <v>218.5937916229218</v>
+        <v>3906</v>
       </c>
       <c r="E18" t="n">
-        <v>410.2690953373373</v>
+        <v>7331</v>
       </c>
       <c r="F18" t="n">
-        <v>515.9843212399741</v>
+        <v>9220</v>
       </c>
       <c r="G18" t="n">
-        <v>225.3653862942924</v>
+        <v>4027</v>
       </c>
       <c r="H18" t="n">
-        <v>67.82787389835669</v>
+        <v>1212</v>
       </c>
       <c r="I18" t="n">
-        <v>536.1871780694352</v>
+        <v>9581</v>
       </c>
       <c r="J18" t="n">
-        <v>742.021270642171</v>
+        <v>13259</v>
       </c>
       <c r="K18" t="n">
-        <v>35.87266268056653</v>
+        <v>641</v>
       </c>
       <c r="L18" t="n">
-        <v>20.81845634504017</v>
+        <v>372</v>
       </c>
       <c r="M18" t="n">
-        <v>50.98283260841827</v>
+        <v>911</v>
       </c>
       <c r="N18" t="n">
-        <v>110.2482768809923</v>
+        <v>1970</v>
       </c>
       <c r="O18" t="n">
-        <v>15.16613352017711</v>
+        <v>271</v>
       </c>
       <c r="P18" t="n">
-        <v>1.23119903115829</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.343126215809043</v>
+        <v>24</v>
       </c>
       <c r="R18" t="n">
-        <v>488.1704158542619</v>
+        <v>8723</v>
       </c>
       <c r="S18" t="n">
-        <v>325.8759981106691</v>
+        <v>5823</v>
       </c>
       <c r="T18" t="n">
-        <v>49115.38349611277</v>
+        <v>877631</v>
       </c>
       <c r="U18" t="n">
-        <v>50884.61650388724</v>
+        <v>909245</v>
       </c>
       <c r="V18" t="n">
-        <v>100000</v>
+        <v>1786876</v>
       </c>
     </row>
     <row r="19">
@@ -1742,67 +1742,67 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.60460074420738</v>
+        <v>166</v>
       </c>
       <c r="C19" t="n">
-        <v>33.97921639340844</v>
+        <v>163</v>
       </c>
       <c r="D19" t="n">
-        <v>90.88919231611094</v>
+        <v>436</v>
       </c>
       <c r="E19" t="n">
-        <v>134.040712521237</v>
+        <v>643</v>
       </c>
       <c r="F19" t="n">
-        <v>393.5752181027923</v>
+        <v>1888</v>
       </c>
       <c r="G19" t="n">
-        <v>159.2645480034605</v>
+        <v>764</v>
       </c>
       <c r="H19" t="n">
-        <v>42.31767440406083</v>
+        <v>203</v>
       </c>
       <c r="I19" t="n">
-        <v>328.9521685202364</v>
+        <v>1578</v>
       </c>
       <c r="J19" t="n">
-        <v>325.4083238657092</v>
+        <v>1561</v>
       </c>
       <c r="K19" t="n">
-        <v>46.27844195912071</v>
+        <v>222</v>
       </c>
       <c r="L19" t="n">
-        <v>30.01844883834857</v>
+        <v>144</v>
       </c>
       <c r="M19" t="n">
-        <v>60.03689767669714</v>
+        <v>288</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4030289448724</v>
+        <v>544</v>
       </c>
       <c r="O19" t="n">
-        <v>7.296150759320833</v>
+        <v>35</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2084614502663095</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.416922900532619</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1345514430744</v>
+        <v>725</v>
       </c>
       <c r="S19" t="n">
-        <v>262.036042984751</v>
+        <v>1257</v>
       </c>
       <c r="T19" t="n">
-        <v>49668.44206335144</v>
+        <v>238262</v>
       </c>
       <c r="U19" t="n">
-        <v>50331.55793664856</v>
+        <v>241443</v>
       </c>
       <c r="V19" t="n">
-        <v>100000</v>
+        <v>479705</v>
       </c>
     </row>
     <row r="20">
@@ -1812,67 +1812,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>113.5578978894038</v>
+        <v>819</v>
       </c>
       <c r="C20" t="n">
-        <v>306.4260736698197</v>
+        <v>2210</v>
       </c>
       <c r="D20" t="n">
-        <v>228.2250304346259</v>
+        <v>1646</v>
       </c>
       <c r="E20" t="n">
-        <v>100.5243906835381</v>
+        <v>725</v>
       </c>
       <c r="F20" t="n">
-        <v>421.9251322069056</v>
+        <v>3043</v>
       </c>
       <c r="G20" t="n">
-        <v>201.6033986949854</v>
+        <v>1454</v>
       </c>
       <c r="H20" t="n">
-        <v>66.97004234503299</v>
+        <v>483</v>
       </c>
       <c r="I20" t="n">
-        <v>692.3010795626287</v>
+        <v>4993</v>
       </c>
       <c r="J20" t="n">
-        <v>1060.844293958276</v>
+        <v>7651</v>
       </c>
       <c r="K20" t="n">
-        <v>102.4655513312202</v>
+        <v>739</v>
       </c>
       <c r="L20" t="n">
-        <v>166.1078897087982</v>
+        <v>1198</v>
       </c>
       <c r="M20" t="n">
-        <v>64.47426436944168</v>
+        <v>465</v>
       </c>
       <c r="N20" t="n">
-        <v>426.5007251621562</v>
+        <v>3076</v>
       </c>
       <c r="O20" t="n">
-        <v>11.5083095541154</v>
+        <v>83</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2773086639545879</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2773086639545879</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>736.254502799431</v>
+        <v>5310</v>
       </c>
       <c r="S20" t="n">
-        <v>467.1264444315034</v>
+        <v>3369</v>
       </c>
       <c r="T20" t="n">
-        <v>48666.00667204645</v>
+        <v>350988</v>
       </c>
       <c r="U20" t="n">
-        <v>51333.99332795354</v>
+        <v>370230</v>
       </c>
       <c r="V20" t="n">
-        <v>100000</v>
+        <v>721218</v>
       </c>
     </row>
     <row r="21">
@@ -1882,67 +1882,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.7591175360214</v>
+        <v>503</v>
       </c>
       <c r="C21" t="n">
-        <v>316.5229479137238</v>
+        <v>1266</v>
       </c>
       <c r="D21" t="n">
-        <v>221.2660417880296</v>
+        <v>885</v>
       </c>
       <c r="E21" t="n">
-        <v>175.0126884199104</v>
+        <v>700</v>
       </c>
       <c r="F21" t="n">
-        <v>452.0327723759972</v>
+        <v>1808</v>
       </c>
       <c r="G21" t="n">
-        <v>120.0087006307957</v>
+        <v>480</v>
       </c>
       <c r="H21" t="n">
-        <v>63.50460408379607</v>
+        <v>254</v>
       </c>
       <c r="I21" t="n">
-        <v>1578.614449547592</v>
+        <v>6314</v>
       </c>
       <c r="J21" t="n">
-        <v>755.0547414687564</v>
+        <v>3020</v>
       </c>
       <c r="K21" t="n">
-        <v>62.00449532591114</v>
+        <v>248</v>
       </c>
       <c r="L21" t="n">
-        <v>155.7612926937203</v>
+        <v>623</v>
       </c>
       <c r="M21" t="n">
-        <v>36.00261018923872</v>
+        <v>144</v>
       </c>
       <c r="N21" t="n">
-        <v>247.5179450510162</v>
+        <v>990</v>
       </c>
       <c r="O21" t="n">
-        <v>16.75121446304857</v>
+        <v>67</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.000145010513262</v>
+        <v>8</v>
       </c>
       <c r="R21" t="n">
-        <v>881.8139315100344</v>
+        <v>3527</v>
       </c>
       <c r="S21" t="n">
-        <v>447.0324098497142</v>
+        <v>1788</v>
       </c>
       <c r="T21" t="n">
-        <v>47972.22798652903</v>
+        <v>191875</v>
       </c>
       <c r="U21" t="n">
-        <v>52027.77201347097</v>
+        <v>208096</v>
       </c>
       <c r="V21" t="n">
-        <v>100000</v>
+        <v>399971</v>
       </c>
     </row>
     <row r="22">
@@ -1952,67 +1952,67 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.10983826647762</v>
+        <v>345</v>
       </c>
       <c r="C22" t="n">
-        <v>378.1415074216741</v>
+        <v>2411</v>
       </c>
       <c r="D22" t="n">
-        <v>478.3623382978456</v>
+        <v>3050</v>
       </c>
       <c r="E22" t="n">
-        <v>381.4351497509379</v>
+        <v>2432</v>
       </c>
       <c r="F22" t="n">
-        <v>649.4748993086488</v>
+        <v>4141</v>
       </c>
       <c r="G22" t="n">
-        <v>266.6281885594549</v>
+        <v>1700</v>
       </c>
       <c r="H22" t="n">
-        <v>51.12987615904842</v>
+        <v>326</v>
       </c>
       <c r="I22" t="n">
-        <v>604.932307808128</v>
+        <v>3857</v>
       </c>
       <c r="J22" t="n">
-        <v>985.2695767826447</v>
+        <v>6282</v>
       </c>
       <c r="K22" t="n">
-        <v>34.19114417997717</v>
+        <v>218</v>
       </c>
       <c r="L22" t="n">
-        <v>41.87630961492616</v>
+        <v>267</v>
       </c>
       <c r="M22" t="n">
-        <v>39.52370795116626</v>
+        <v>252</v>
       </c>
       <c r="N22" t="n">
-        <v>139.2740184945859</v>
+        <v>888</v>
       </c>
       <c r="O22" t="n">
-        <v>18.9776534209965</v>
+        <v>121</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3136802218346529</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.607322551098508</v>
+        <v>23</v>
       </c>
       <c r="R22" t="n">
-        <v>643.828655315625</v>
+        <v>4105</v>
       </c>
       <c r="S22" t="n">
-        <v>321.3653872696019</v>
+        <v>2049</v>
       </c>
       <c r="T22" t="n">
-        <v>50056.61928004116</v>
+        <v>319157</v>
       </c>
       <c r="U22" t="n">
-        <v>49943.38071995885</v>
+        <v>318435</v>
       </c>
       <c r="V22" t="n">
-        <v>100000</v>
+        <v>637592</v>
       </c>
     </row>
     <row r="23">
@@ -2022,67 +2022,67 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.85668629373433</v>
+        <v>538</v>
       </c>
       <c r="C23" t="n">
-        <v>130.4107600387847</v>
+        <v>963</v>
       </c>
       <c r="D23" t="n">
-        <v>152.6198614368747</v>
+        <v>1127</v>
       </c>
       <c r="E23" t="n">
-        <v>117.6811531398794</v>
+        <v>869</v>
       </c>
       <c r="F23" t="n">
-        <v>333.8136277212921</v>
+        <v>2465</v>
       </c>
       <c r="G23" t="n">
-        <v>132.9837656885634</v>
+        <v>982</v>
       </c>
       <c r="H23" t="n">
-        <v>26.9488486476824</v>
+        <v>199</v>
       </c>
       <c r="I23" t="n">
-        <v>560.1027035518312</v>
+        <v>4136</v>
       </c>
       <c r="J23" t="n">
-        <v>486.2980678081784</v>
+        <v>3591</v>
       </c>
       <c r="K23" t="n">
-        <v>38.73050609666917</v>
+        <v>286</v>
       </c>
       <c r="L23" t="n">
-        <v>84.23207969275605</v>
+        <v>622</v>
       </c>
       <c r="M23" t="n">
-        <v>55.79359619520174</v>
+        <v>412</v>
       </c>
       <c r="N23" t="n">
-        <v>148.5572209372241</v>
+        <v>1097</v>
       </c>
       <c r="O23" t="n">
-        <v>18.41730359841611</v>
+        <v>136</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1354213499883538</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>674.1274802420251</v>
+        <v>4978</v>
       </c>
       <c r="S23" t="n">
-        <v>244.4355367289785</v>
+        <v>1805</v>
       </c>
       <c r="T23" t="n">
-        <v>49937.84160035535</v>
+        <v>368759</v>
       </c>
       <c r="U23" t="n">
-        <v>50062.15839964465</v>
+        <v>369677</v>
       </c>
       <c r="V23" t="n">
-        <v>100000</v>
+        <v>738436</v>
       </c>
     </row>
     <row r="24">
@@ -2092,67 +2092,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24.79768927447549</v>
+        <v>71</v>
       </c>
       <c r="C24" t="n">
-        <v>331.1015412986305</v>
+        <v>948</v>
       </c>
       <c r="D24" t="n">
-        <v>44.70569333989948</v>
+        <v>128</v>
       </c>
       <c r="E24" t="n">
-        <v>238.5467855558699</v>
+        <v>683</v>
       </c>
       <c r="F24" t="n">
-        <v>300.3663771274497</v>
+        <v>860</v>
       </c>
       <c r="G24" t="n">
-        <v>110.3671804328768</v>
+        <v>316</v>
       </c>
       <c r="H24" t="n">
-        <v>40.16527136006594</v>
+        <v>115</v>
       </c>
       <c r="I24" t="n">
-        <v>990.5105180621479</v>
+        <v>2836</v>
       </c>
       <c r="J24" t="n">
-        <v>705.8609862495066</v>
+        <v>2021</v>
       </c>
       <c r="K24" t="n">
-        <v>16.06610854402638</v>
+        <v>46</v>
       </c>
       <c r="L24" t="n">
-        <v>23.7498995868216</v>
+        <v>68</v>
       </c>
       <c r="M24" t="n">
-        <v>25.14695250369346</v>
+        <v>72</v>
       </c>
       <c r="N24" t="n">
-        <v>89.41138667979897</v>
+        <v>256</v>
       </c>
       <c r="O24" t="n">
-        <v>23.40063635760363</v>
+        <v>67</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6985264584359294</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>826.3568003297046</v>
+        <v>2366</v>
       </c>
       <c r="S24" t="n">
-        <v>344.0242807796952</v>
+        <v>985</v>
       </c>
       <c r="T24" t="n">
-        <v>50613.13159889213</v>
+        <v>144914</v>
       </c>
       <c r="U24" t="n">
-        <v>49386.86840110787</v>
+        <v>141403</v>
       </c>
       <c r="V24" t="n">
-        <v>100000</v>
+        <v>286317</v>
       </c>
     </row>
     <row r="25">
@@ -2162,67 +2162,67 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.00371854030391</v>
+        <v>568</v>
       </c>
       <c r="C25" t="n">
-        <v>808.465595050961</v>
+        <v>7653</v>
       </c>
       <c r="D25" t="n">
-        <v>214.0273481736896</v>
+        <v>2026</v>
       </c>
       <c r="E25" t="n">
-        <v>1208.10303737133</v>
+        <v>11436</v>
       </c>
       <c r="F25" t="n">
-        <v>306.1457329750012</v>
+        <v>2898</v>
       </c>
       <c r="G25" t="n">
-        <v>226.3872690701959</v>
+        <v>2143</v>
       </c>
       <c r="H25" t="n">
-        <v>25.56496458935483</v>
+        <v>242</v>
       </c>
       <c r="I25" t="n">
-        <v>429.6393015905211</v>
+        <v>4067</v>
       </c>
       <c r="J25" t="n">
-        <v>308.1528996163142</v>
+        <v>2917</v>
       </c>
       <c r="K25" t="n">
-        <v>15.00092963507598</v>
+        <v>142</v>
       </c>
       <c r="L25" t="n">
-        <v>10.66967530382164</v>
+        <v>101</v>
       </c>
       <c r="M25" t="n">
-        <v>23.66343829758464</v>
+        <v>224</v>
       </c>
       <c r="N25" t="n">
-        <v>72.99748153406689</v>
+        <v>691</v>
       </c>
       <c r="O25" t="n">
-        <v>6.444061322110103</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
-        <v>0.6338420972567315</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4225613981711543</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>299.8073120024339</v>
+        <v>2838</v>
       </c>
       <c r="S25" t="n">
-        <v>262.5162686138296</v>
+        <v>2485</v>
       </c>
       <c r="T25" t="n">
-        <v>48974.02092524044</v>
+        <v>463592</v>
       </c>
       <c r="U25" t="n">
-        <v>51025.97907475956</v>
+        <v>483016</v>
       </c>
       <c r="V25" t="n">
-        <v>100000</v>
+        <v>946608</v>
       </c>
     </row>
     <row r="26">
@@ -2232,67 +2232,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.99728063556245</v>
+        <v>151</v>
       </c>
       <c r="C26" t="n">
-        <v>246.8784259008784</v>
+        <v>867</v>
       </c>
       <c r="D26" t="n">
-        <v>244.0309238720332</v>
+        <v>857</v>
       </c>
       <c r="E26" t="n">
-        <v>122.1578370374589</v>
+        <v>429</v>
       </c>
       <c r="F26" t="n">
-        <v>694.7904950382277</v>
+        <v>2440</v>
       </c>
       <c r="G26" t="n">
-        <v>383.2737730825633</v>
+        <v>1346</v>
       </c>
       <c r="H26" t="n">
-        <v>37.01752637498755</v>
+        <v>130</v>
       </c>
       <c r="I26" t="n">
-        <v>788.7580619901191</v>
+        <v>2770</v>
       </c>
       <c r="J26" t="n">
-        <v>320.0592280422</v>
+        <v>1124</v>
       </c>
       <c r="K26" t="n">
-        <v>13.95275994134146</v>
+        <v>49</v>
       </c>
       <c r="L26" t="n">
-        <v>85.99456127112491</v>
+        <v>302</v>
       </c>
       <c r="M26" t="n">
-        <v>50.11603570767544</v>
+        <v>176</v>
       </c>
       <c r="N26" t="n">
-        <v>272.7906943633697</v>
+        <v>958</v>
       </c>
       <c r="O26" t="n">
-        <v>3.132252231729715</v>
+        <v>11</v>
       </c>
       <c r="P26" t="n">
-        <v>2.847502028845196</v>
+        <v>10</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5695004057690392</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>275.6381963922149</v>
+        <v>968</v>
       </c>
       <c r="S26" t="n">
-        <v>306.6759685066276</v>
+        <v>1077</v>
       </c>
       <c r="T26" t="n">
-        <v>49925.82257214858</v>
+        <v>175332</v>
       </c>
       <c r="U26" t="n">
-        <v>50074.17742785142</v>
+        <v>175853</v>
       </c>
       <c r="V26" t="n">
-        <v>100000</v>
+        <v>351185</v>
       </c>
     </row>
     <row r="27">
@@ -2302,67 +2302,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.0437173156816</v>
+        <v>284</v>
       </c>
       <c r="C27" t="n">
-        <v>146.671478924614</v>
+        <v>382</v>
       </c>
       <c r="D27" t="n">
-        <v>223.4628291469249</v>
+        <v>582</v>
       </c>
       <c r="E27" t="n">
-        <v>1285.487202721486</v>
+        <v>3348</v>
       </c>
       <c r="F27" t="n">
-        <v>372.4380485782082</v>
+        <v>970</v>
       </c>
       <c r="G27" t="n">
-        <v>74.48760971564163</v>
+        <v>194</v>
       </c>
       <c r="H27" t="n">
-        <v>60.66516667562566</v>
+        <v>158</v>
       </c>
       <c r="I27" t="n">
-        <v>473.0347173694355</v>
+        <v>1232</v>
       </c>
       <c r="J27" t="n">
-        <v>503.3673007072483</v>
+        <v>1311</v>
       </c>
       <c r="K27" t="n">
-        <v>46.07481013338658</v>
+        <v>120</v>
       </c>
       <c r="L27" t="n">
-        <v>37.62776160893237</v>
+        <v>98</v>
       </c>
       <c r="M27" t="n">
-        <v>77.55926372453406</v>
+        <v>202</v>
       </c>
       <c r="N27" t="n">
-        <v>160.4939219646299</v>
+        <v>418</v>
       </c>
       <c r="O27" t="n">
-        <v>11.51870253334664</v>
+        <v>30</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3839567511115548</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.919783755557774</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>501.8314737028022</v>
+        <v>1307</v>
       </c>
       <c r="S27" t="n">
-        <v>289.8873470892239</v>
+        <v>755</v>
       </c>
       <c r="T27" t="n">
-        <v>49490.10543452386</v>
+        <v>128895</v>
       </c>
       <c r="U27" t="n">
-        <v>50509.89456547614</v>
+        <v>131551</v>
       </c>
       <c r="V27" t="n">
-        <v>100000</v>
+        <v>260446</v>
       </c>
     </row>
     <row r="28">
@@ -2372,67 +2372,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.98509315692628</v>
+        <v>627</v>
       </c>
       <c r="C28" t="n">
-        <v>68.52723903537068</v>
+        <v>632</v>
       </c>
       <c r="D28" t="n">
-        <v>41.09465758608464</v>
+        <v>379</v>
       </c>
       <c r="E28" t="n">
-        <v>287.120457224148</v>
+        <v>2648</v>
       </c>
       <c r="F28" t="n">
-        <v>212.8464718772669</v>
+        <v>1963</v>
       </c>
       <c r="G28" t="n">
-        <v>98.88740822825643</v>
+        <v>912</v>
       </c>
       <c r="H28" t="n">
-        <v>45.54025378932862</v>
+        <v>420</v>
       </c>
       <c r="I28" t="n">
-        <v>334.9377237029431</v>
+        <v>3089</v>
       </c>
       <c r="J28" t="n">
-        <v>298.8308081985468</v>
+        <v>2756</v>
       </c>
       <c r="K28" t="n">
-        <v>21.79426431346441</v>
+        <v>201</v>
       </c>
       <c r="L28" t="n">
-        <v>25.58928546257513</v>
+        <v>236</v>
       </c>
       <c r="M28" t="n">
-        <v>30.68545671995238</v>
+        <v>283</v>
       </c>
       <c r="N28" t="n">
-        <v>117.86251397381</v>
+        <v>1087</v>
       </c>
       <c r="O28" t="n">
-        <v>10.73448839319889</v>
+        <v>99</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4337167027555106</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.301150108266532</v>
+        <v>12</v>
       </c>
       <c r="R28" t="n">
-        <v>525.2309270369234</v>
+        <v>4844</v>
       </c>
       <c r="S28" t="n">
-        <v>258.6035840179732</v>
+        <v>2385</v>
       </c>
       <c r="T28" t="n">
-        <v>48018.94474557636</v>
+        <v>442860</v>
       </c>
       <c r="U28" t="n">
-        <v>51981.05525442363</v>
+        <v>479401</v>
       </c>
       <c r="V28" t="n">
-        <v>100000</v>
+        <v>922261</v>
       </c>
     </row>
     <row r="29">
@@ -2442,67 +2442,67 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.47384384329894</v>
+        <v>204</v>
       </c>
       <c r="C29" t="n">
-        <v>187.3132276358195</v>
+        <v>1342</v>
       </c>
       <c r="D29" t="n">
-        <v>166.5161554169394</v>
+        <v>1193</v>
       </c>
       <c r="E29" t="n">
-        <v>86.39857519118651</v>
+        <v>619</v>
       </c>
       <c r="F29" t="n">
-        <v>623.7725889005048</v>
+        <v>4469</v>
       </c>
       <c r="G29" t="n">
-        <v>198.2002855759044</v>
+        <v>1420</v>
       </c>
       <c r="H29" t="n">
-        <v>46.33978507831005</v>
+        <v>332</v>
       </c>
       <c r="I29" t="n">
-        <v>332.4740001702847</v>
+        <v>2382</v>
       </c>
       <c r="J29" t="n">
-        <v>415.6622890458052</v>
+        <v>2978</v>
       </c>
       <c r="K29" t="n">
-        <v>29.45088750458861</v>
+        <v>211</v>
       </c>
       <c r="L29" t="n">
-        <v>10.04959194469374</v>
+        <v>72</v>
       </c>
       <c r="M29" t="n">
-        <v>67.9743232925813</v>
+        <v>487</v>
       </c>
       <c r="N29" t="n">
-        <v>159.6768497879117</v>
+        <v>1144</v>
       </c>
       <c r="O29" t="n">
-        <v>10.32874727649079</v>
+        <v>74</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.466485308752776</v>
+        <v>32</v>
       </c>
       <c r="R29" t="n">
-        <v>316.0038355942589</v>
+        <v>2264</v>
       </c>
       <c r="S29" t="n">
-        <v>254.5896625989082</v>
+        <v>1824</v>
       </c>
       <c r="T29" t="n">
-        <v>49786.79511534001</v>
+        <v>356696</v>
       </c>
       <c r="U29" t="n">
-        <v>50213.20488466</v>
+        <v>359751</v>
       </c>
       <c r="V29" t="n">
-        <v>100000</v>
+        <v>716447</v>
       </c>
     </row>
     <row r="30">
@@ -2512,67 +2512,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.8870525257759</v>
+        <v>2182</v>
       </c>
       <c r="C30" t="n">
-        <v>458.9557143063357</v>
+        <v>12082</v>
       </c>
       <c r="D30" t="n">
-        <v>122.3932553794913</v>
+        <v>3222</v>
       </c>
       <c r="E30" t="n">
-        <v>461.1209581165874</v>
+        <v>12139</v>
       </c>
       <c r="F30" t="n">
-        <v>437.9870374070559</v>
+        <v>11530</v>
       </c>
       <c r="G30" t="n">
-        <v>200.7598866171978</v>
+        <v>5285</v>
       </c>
       <c r="H30" t="n">
-        <v>66.74269078267106</v>
+        <v>1757</v>
       </c>
       <c r="I30" t="n">
-        <v>652.6120817565672</v>
+        <v>17180</v>
       </c>
       <c r="J30" t="n">
-        <v>513.0868095626283</v>
+        <v>13507</v>
       </c>
       <c r="K30" t="n">
-        <v>33.23839182403938</v>
+        <v>875</v>
       </c>
       <c r="L30" t="n">
-        <v>20.36088916306869</v>
+        <v>536</v>
       </c>
       <c r="M30" t="n">
-        <v>39.46821612020218</v>
+        <v>1039</v>
       </c>
       <c r="N30" t="n">
-        <v>112.5926781330888</v>
+        <v>2964</v>
       </c>
       <c r="O30" t="n">
-        <v>11.39602005395636</v>
+        <v>300</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3798673351318785</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.025641804856072</v>
+        <v>27</v>
       </c>
       <c r="R30" t="n">
-        <v>629.2502406459569</v>
+        <v>16565</v>
       </c>
       <c r="S30" t="n">
-        <v>294.4731581942322</v>
+        <v>7752</v>
       </c>
       <c r="T30" t="n">
-        <v>49093.48459144128</v>
+        <v>1292385</v>
       </c>
       <c r="U30" t="n">
-        <v>50906.51540855872</v>
+        <v>1340113</v>
       </c>
       <c r="V30" t="n">
-        <v>100000</v>
+        <v>2632498</v>
       </c>
     </row>
     <row r="31">
@@ -2582,67 +2582,67 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.52500167217434</v>
+        <v>449</v>
       </c>
       <c r="C31" t="n">
-        <v>149.187032457631</v>
+        <v>1539</v>
       </c>
       <c r="D31" t="n">
-        <v>111.9629775754151</v>
+        <v>1155</v>
       </c>
       <c r="E31" t="n">
-        <v>142.6922103818277</v>
+        <v>1472</v>
       </c>
       <c r="F31" t="n">
-        <v>437.7703954377267</v>
+        <v>4516</v>
       </c>
       <c r="G31" t="n">
-        <v>224.7014562942096</v>
+        <v>2318</v>
       </c>
       <c r="H31" t="n">
-        <v>43.52500167217434</v>
+        <v>449</v>
       </c>
       <c r="I31" t="n">
-        <v>757.3738041530025</v>
+        <v>7813</v>
       </c>
       <c r="J31" t="n">
-        <v>753.8840490077947</v>
+        <v>7777</v>
       </c>
       <c r="K31" t="n">
-        <v>31.50473394979212</v>
+        <v>325</v>
       </c>
       <c r="L31" t="n">
-        <v>22.29565787216058</v>
+        <v>230</v>
       </c>
       <c r="M31" t="n">
-        <v>42.94337581463972</v>
+        <v>443</v>
       </c>
       <c r="N31" t="n">
-        <v>166.0541823261351</v>
+        <v>1713</v>
       </c>
       <c r="O31" t="n">
-        <v>14.8314593671329</v>
+        <v>153</v>
       </c>
       <c r="P31" t="n">
-        <v>0.678563500457061</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.423441073060932</v>
+        <v>25</v>
       </c>
       <c r="R31" t="n">
-        <v>862.4542090809244</v>
+        <v>8897</v>
       </c>
       <c r="S31" t="n">
-        <v>320.0880969298879</v>
+        <v>3302</v>
       </c>
       <c r="T31" t="n">
-        <v>48759.24663941427</v>
+        <v>502996</v>
       </c>
       <c r="U31" t="n">
-        <v>51240.75336058573</v>
+        <v>528595</v>
       </c>
       <c r="V31" t="n">
-        <v>100000</v>
+        <v>1031591</v>
       </c>
     </row>
     <row r="32">
@@ -2652,67 +2652,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55.41670842857744</v>
+        <v>857</v>
       </c>
       <c r="C32" t="n">
-        <v>52.44218265528156</v>
+        <v>811</v>
       </c>
       <c r="D32" t="n">
-        <v>126.094027346238</v>
+        <v>1950</v>
       </c>
       <c r="E32" t="n">
-        <v>166.9614249271726</v>
+        <v>2582</v>
       </c>
       <c r="F32" t="n">
-        <v>354.4212122485798</v>
+        <v>5481</v>
       </c>
       <c r="G32" t="n">
-        <v>216.7523998279948</v>
+        <v>3352</v>
       </c>
       <c r="H32" t="n">
-        <v>69.25471963477996</v>
+        <v>1071</v>
       </c>
       <c r="I32" t="n">
-        <v>340.4538738348427</v>
+        <v>5265</v>
       </c>
       <c r="J32" t="n">
-        <v>542.6569628151947</v>
+        <v>8392</v>
       </c>
       <c r="K32" t="n">
-        <v>34.40103720420443</v>
+        <v>532</v>
       </c>
       <c r="L32" t="n">
-        <v>39.63878910935586</v>
+        <v>613</v>
       </c>
       <c r="M32" t="n">
-        <v>35.24166405317935</v>
+        <v>545</v>
       </c>
       <c r="N32" t="n">
-        <v>141.0313198164847</v>
+        <v>2181</v>
       </c>
       <c r="O32" t="n">
-        <v>8.147614074679996</v>
+        <v>126</v>
       </c>
       <c r="P32" t="n">
-        <v>0.06466360376730156</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.22860847157873</v>
+        <v>19</v>
       </c>
       <c r="R32" t="n">
-        <v>589.1500939238845</v>
+        <v>9111</v>
       </c>
       <c r="S32" t="n">
-        <v>293.5727611035491</v>
+        <v>4540</v>
       </c>
       <c r="T32" t="n">
-        <v>49340.52823697917</v>
+        <v>763034</v>
       </c>
       <c r="U32" t="n">
-        <v>50659.47176302083</v>
+        <v>783431</v>
       </c>
       <c r="V32" t="n">
-        <v>100000</v>
+        <v>1546465</v>
       </c>
     </row>
     <row r="33">
@@ -2722,67 +2722,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60.83224403622992</v>
+        <v>289</v>
       </c>
       <c r="C33" t="n">
-        <v>417.8270048855238</v>
+        <v>1985</v>
       </c>
       <c r="D33" t="n">
-        <v>379.5174255962718</v>
+        <v>1803</v>
       </c>
       <c r="E33" t="n">
-        <v>175.7609819039861</v>
+        <v>835</v>
       </c>
       <c r="F33" t="n">
-        <v>378.4649646267868</v>
+        <v>1798</v>
       </c>
       <c r="G33" t="n">
-        <v>133.6625431245882</v>
+        <v>635</v>
       </c>
       <c r="H33" t="n">
-        <v>95.35296383533617</v>
+        <v>453</v>
       </c>
       <c r="I33" t="n">
-        <v>659.6825356731646</v>
+        <v>3134</v>
       </c>
       <c r="J33" t="n">
-        <v>862.3865183959653</v>
+        <v>4097</v>
       </c>
       <c r="K33" t="n">
-        <v>59.77978306674497</v>
+        <v>284</v>
       </c>
       <c r="L33" t="n">
-        <v>21.6806959713899</v>
+        <v>103</v>
       </c>
       <c r="M33" t="n">
-        <v>53.88600163762927</v>
+        <v>256</v>
       </c>
       <c r="N33" t="n">
-        <v>432.7719506522101</v>
+        <v>2056</v>
       </c>
       <c r="O33" t="n">
-        <v>12.20854724602538</v>
+        <v>58</v>
       </c>
       <c r="P33" t="n">
-        <v>1.473445357278925</v>
+        <v>7</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.894429745072904</v>
+        <v>9</v>
       </c>
       <c r="R33" t="n">
-        <v>751.036147824458</v>
+        <v>3568</v>
       </c>
       <c r="S33" t="n">
-        <v>405.1974732517044</v>
+        <v>1925</v>
       </c>
       <c r="T33" t="n">
-        <v>49972.95175308423</v>
+        <v>237410</v>
       </c>
       <c r="U33" t="n">
-        <v>50027.04824691577</v>
+        <v>237667</v>
       </c>
       <c r="V33" t="n">
-        <v>100000</v>
+        <v>475077</v>
       </c>
     </row>
     <row r="34">
@@ -2792,67 +2792,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.27080431572634</v>
+        <v>124</v>
       </c>
       <c r="C34" t="n">
-        <v>13.30037795240682</v>
+        <v>108</v>
       </c>
       <c r="D34" t="n">
-        <v>32.38888334706474</v>
+        <v>263</v>
       </c>
       <c r="E34" t="n">
-        <v>754.6732971513793</v>
+        <v>6128</v>
       </c>
       <c r="F34" t="n">
-        <v>363.5436640324529</v>
+        <v>2952</v>
       </c>
       <c r="G34" t="n">
-        <v>126.8461971386946</v>
+        <v>1030</v>
       </c>
       <c r="H34" t="n">
-        <v>19.82741528090275</v>
+        <v>161</v>
       </c>
       <c r="I34" t="n">
-        <v>384.4794441427229</v>
+        <v>3122</v>
       </c>
       <c r="J34" t="n">
-        <v>341.4995190928157</v>
+        <v>2773</v>
       </c>
       <c r="K34" t="n">
-        <v>23.27566141671192</v>
+        <v>189</v>
       </c>
       <c r="L34" t="n">
-        <v>28.20172732501075</v>
+        <v>229</v>
       </c>
       <c r="M34" t="n">
-        <v>24.13772295066422</v>
+        <v>196</v>
       </c>
       <c r="N34" t="n">
-        <v>64.2851601032996</v>
+        <v>522</v>
       </c>
       <c r="O34" t="n">
-        <v>6.773340623910879</v>
+        <v>55</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1231516477074705</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.970426363319528</v>
+        <v>16</v>
       </c>
       <c r="R34" t="n">
-        <v>302.82990171267</v>
+        <v>2459</v>
       </c>
       <c r="S34" t="n">
-        <v>169.4566672454794</v>
+        <v>1376</v>
       </c>
       <c r="T34" t="n">
-        <v>49463.12039181928</v>
+        <v>401644</v>
       </c>
       <c r="U34" t="n">
-        <v>50536.87960818072</v>
+        <v>410363</v>
       </c>
       <c r="V34" t="n">
-        <v>100000</v>
+        <v>812007</v>
       </c>
     </row>
     <row r="35">
@@ -2862,46 +2862,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.28367203152</v>
+        <v>662</v>
       </c>
       <c r="C35" t="n">
-        <v>167.282660463432</v>
+        <v>850</v>
       </c>
       <c r="D35" t="n">
-        <v>104.1088557472418</v>
+        <v>529</v>
       </c>
       <c r="E35" t="n">
-        <v>116.9010591944454</v>
+        <v>594</v>
       </c>
       <c r="F35" t="n">
-        <v>405.6112508413334</v>
+        <v>2061</v>
       </c>
       <c r="G35" t="n">
-        <v>136.1877659302293</v>
+        <v>692</v>
       </c>
       <c r="H35" t="n">
-        <v>18.69629734591299</v>
+        <v>95</v>
       </c>
       <c r="I35" t="n">
-        <v>417.6162417687091</v>
+        <v>2122</v>
       </c>
       <c r="J35" t="n">
-        <v>297.959938754866</v>
+        <v>1514</v>
       </c>
       <c r="K35" t="n">
-        <v>19.4835098657409</v>
+        <v>99</v>
       </c>
       <c r="L35" t="n">
-        <v>7.675322068322174</v>
+        <v>39</v>
       </c>
       <c r="M35" t="n">
-        <v>14.36662848685945</v>
+        <v>73</v>
       </c>
       <c r="N35" t="n">
-        <v>40.34464164118067</v>
+        <v>205</v>
       </c>
       <c r="O35" t="n">
-        <v>7.281715808408216</v>
+        <v>37</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2910,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>241.0838341972991</v>
+        <v>1225</v>
       </c>
       <c r="S35" t="n">
-        <v>198.9679643865056</v>
+        <v>1011</v>
       </c>
       <c r="T35" t="n">
-        <v>49817.36669539992</v>
+        <v>253133</v>
       </c>
       <c r="U35" t="n">
-        <v>50182.63330460008</v>
+        <v>254989</v>
       </c>
       <c r="V35" t="n">
-        <v>100000</v>
+        <v>508122</v>
       </c>
     </row>
     <row r="36">
@@ -2932,67 +2932,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.21889027576422</v>
+        <v>94</v>
       </c>
       <c r="C36" t="n">
-        <v>152.340933582454</v>
+        <v>786</v>
       </c>
       <c r="D36" t="n">
-        <v>160.4812888120508</v>
+        <v>828</v>
       </c>
       <c r="E36" t="n">
-        <v>173.8547295463884</v>
+        <v>897</v>
       </c>
       <c r="F36" t="n">
-        <v>342.0887376247219</v>
+        <v>1765</v>
       </c>
       <c r="G36" t="n">
-        <v>196.9190693635793</v>
+        <v>1016</v>
       </c>
       <c r="H36" t="n">
-        <v>28.1036073402746</v>
+        <v>145</v>
       </c>
       <c r="I36" t="n">
-        <v>349.0661849643762</v>
+        <v>1801</v>
       </c>
       <c r="J36" t="n">
-        <v>232.7753959701365</v>
+        <v>1201</v>
       </c>
       <c r="K36" t="n">
-        <v>25.39015559707568</v>
+        <v>131</v>
       </c>
       <c r="L36" t="n">
-        <v>9.884717064510378</v>
+        <v>51</v>
       </c>
       <c r="M36" t="n">
-        <v>40.89559412964097</v>
+        <v>211</v>
       </c>
       <c r="N36" t="n">
-        <v>74.23228697465636</v>
+        <v>383</v>
       </c>
       <c r="O36" t="n">
-        <v>10.65998899113864</v>
+        <v>55</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1938179816570662</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1938179816570662</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>509.35365579477</v>
+        <v>2628</v>
       </c>
       <c r="S36" t="n">
-        <v>244.9859288145317</v>
+        <v>1264</v>
       </c>
       <c r="T36" t="n">
-        <v>49520.1066774171</v>
+        <v>255498</v>
       </c>
       <c r="U36" t="n">
-        <v>50479.8933225829</v>
+        <v>260450</v>
       </c>
       <c r="V36" t="n">
-        <v>100000</v>
+        <v>515948</v>
       </c>
     </row>
     <row r="37">
@@ -3002,67 +3002,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.46608431917181</v>
+        <v>1040</v>
       </c>
       <c r="C37" t="n">
-        <v>97.10089982746214</v>
+        <v>1255</v>
       </c>
       <c r="D37" t="n">
-        <v>71.49102106818727</v>
+        <v>924</v>
       </c>
       <c r="E37" t="n">
-        <v>117.6042770818665</v>
+        <v>1520</v>
       </c>
       <c r="F37" t="n">
-        <v>712.2795886945152</v>
+        <v>9206</v>
       </c>
       <c r="G37" t="n">
-        <v>107.0817891324363</v>
+        <v>1384</v>
       </c>
       <c r="H37" t="n">
-        <v>213.7767220902613</v>
+        <v>2763</v>
       </c>
       <c r="I37" t="n">
-        <v>809.303117287055</v>
+        <v>10460</v>
       </c>
       <c r="J37" t="n">
-        <v>549.7226241228036</v>
+        <v>7105</v>
       </c>
       <c r="K37" t="n">
-        <v>68.86039908082972</v>
+        <v>890</v>
       </c>
       <c r="L37" t="n">
-        <v>27.77627333709873</v>
+        <v>359</v>
       </c>
       <c r="M37" t="n">
-        <v>75.28221157937901</v>
+        <v>973</v>
       </c>
       <c r="N37" t="n">
-        <v>144.6842093046647</v>
+        <v>1870</v>
       </c>
       <c r="O37" t="n">
-        <v>15.86110315906752</v>
+        <v>205</v>
       </c>
       <c r="P37" t="n">
-        <v>1.005826053989648</v>
+        <v>13</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.470053463523331</v>
+        <v>19</v>
       </c>
       <c r="R37" t="n">
-        <v>538.8906512336844</v>
+        <v>6965</v>
       </c>
       <c r="S37" t="n">
-        <v>205.5753711884995</v>
+        <v>2657</v>
       </c>
       <c r="T37" t="n">
-        <v>46461.8134270041</v>
+        <v>600505</v>
       </c>
       <c r="U37" t="n">
-        <v>53538.1865729959</v>
+        <v>691965</v>
       </c>
       <c r="V37" t="n">
-        <v>100000</v>
+        <v>1292470</v>
       </c>
     </row>
     <row r="38">
@@ -3072,67 +3072,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.92380742123344</v>
+        <v>310</v>
       </c>
       <c r="C38" t="n">
-        <v>81.36730522858107</v>
+        <v>973</v>
       </c>
       <c r="D38" t="n">
-        <v>89.39532301064047</v>
+        <v>1069</v>
       </c>
       <c r="E38" t="n">
-        <v>235.1540208661562</v>
+        <v>2812</v>
       </c>
       <c r="F38" t="n">
-        <v>190.9999230648296</v>
+        <v>2284</v>
       </c>
       <c r="G38" t="n">
-        <v>54.35637039936044</v>
+        <v>650</v>
       </c>
       <c r="H38" t="n">
-        <v>30.18869186795249</v>
+        <v>361</v>
       </c>
       <c r="I38" t="n">
-        <v>320.8698357266861</v>
+        <v>3837</v>
       </c>
       <c r="J38" t="n">
-        <v>214.4986001143993</v>
+        <v>2565</v>
       </c>
       <c r="K38" t="n">
-        <v>15.47065926751028</v>
+        <v>185</v>
       </c>
       <c r="L38" t="n">
-        <v>19.06654223239105</v>
+        <v>228</v>
       </c>
       <c r="M38" t="n">
-        <v>25.33843112462494</v>
+        <v>303</v>
       </c>
       <c r="N38" t="n">
-        <v>68.7399022588835</v>
+        <v>822</v>
       </c>
       <c r="O38" t="n">
-        <v>7.609891855910461</v>
+        <v>91</v>
       </c>
       <c r="P38" t="n">
-        <v>0.08362518522978529</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9198770375276381</v>
+        <v>11</v>
       </c>
       <c r="R38" t="n">
-        <v>418.4604268898455</v>
+        <v>5004</v>
       </c>
       <c r="S38" t="n">
-        <v>161.9819837900941</v>
+        <v>1937</v>
       </c>
       <c r="T38" t="n">
-        <v>47360.87277933321</v>
+        <v>566347</v>
       </c>
       <c r="U38" t="n">
-        <v>52639.12722066679</v>
+        <v>629465</v>
       </c>
       <c r="V38" t="n">
-        <v>100000</v>
+        <v>1195812</v>
       </c>
     </row>
     <row r="39">
@@ -3142,67 +3142,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.84155979107987</v>
+        <v>189</v>
       </c>
       <c r="C39" t="n">
-        <v>352.3476168339304</v>
+        <v>2577</v>
       </c>
       <c r="D39" t="n">
-        <v>40.7448932155651</v>
+        <v>298</v>
       </c>
       <c r="E39" t="n">
-        <v>443.9552626541606</v>
+        <v>3247</v>
       </c>
       <c r="F39" t="n">
-        <v>367.6611337471629</v>
+        <v>2689</v>
       </c>
       <c r="G39" t="n">
-        <v>71.50865487161256</v>
+        <v>523</v>
       </c>
       <c r="H39" t="n">
-        <v>44.29981678470836</v>
+        <v>324</v>
       </c>
       <c r="I39" t="n">
-        <v>267.4396346632394</v>
+        <v>1956</v>
       </c>
       <c r="J39" t="n">
-        <v>399.7921736990347</v>
+        <v>2924</v>
       </c>
       <c r="K39" t="n">
-        <v>24.20082583609068</v>
+        <v>177</v>
       </c>
       <c r="L39" t="n">
-        <v>24.74773715442041</v>
+        <v>181</v>
       </c>
       <c r="M39" t="n">
-        <v>25.84155979107987</v>
+        <v>189</v>
       </c>
       <c r="N39" t="n">
-        <v>37.18996964642184</v>
+        <v>272</v>
       </c>
       <c r="O39" t="n">
-        <v>5.058929694550029</v>
+        <v>37</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5469113183297328</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>250.3486559654352</v>
+        <v>1831</v>
       </c>
       <c r="S39" t="n">
-        <v>142.1969427657305</v>
+        <v>1040</v>
       </c>
       <c r="T39" t="n">
-        <v>49420.00054691132</v>
+        <v>361448</v>
       </c>
       <c r="U39" t="n">
-        <v>50579.99945308868</v>
+        <v>369932</v>
       </c>
       <c r="V39" t="n">
-        <v>100000</v>
+        <v>731380</v>
       </c>
     </row>
     <row r="40">
@@ -3212,67 +3212,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.23023811036096</v>
+        <v>196</v>
       </c>
       <c r="C40" t="n">
-        <v>113.5815938038252</v>
+        <v>304</v>
       </c>
       <c r="D40" t="n">
-        <v>188.679950233328</v>
+        <v>505</v>
       </c>
       <c r="E40" t="n">
-        <v>223.4269509693666</v>
+        <v>598</v>
       </c>
       <c r="F40" t="n">
-        <v>466.2823324578086</v>
+        <v>1248</v>
       </c>
       <c r="G40" t="n">
-        <v>133.3836479867289</v>
+        <v>357</v>
       </c>
       <c r="H40" t="n">
-        <v>63.51602285082328</v>
+        <v>170</v>
       </c>
       <c r="I40" t="n">
-        <v>717.3574345504746</v>
+        <v>1920</v>
       </c>
       <c r="J40" t="n">
-        <v>518.5896453937806</v>
+        <v>1388</v>
       </c>
       <c r="K40" t="n">
-        <v>30.63714043392653</v>
+        <v>82</v>
       </c>
       <c r="L40" t="n">
-        <v>59.03253888488281</v>
+        <v>158</v>
       </c>
       <c r="M40" t="n">
-        <v>22.04379616587396</v>
+        <v>59</v>
       </c>
       <c r="N40" t="n">
-        <v>156.9219388079163</v>
+        <v>420</v>
       </c>
       <c r="O40" t="n">
-        <v>13.4504518978214</v>
+        <v>36</v>
       </c>
       <c r="P40" t="n">
-        <v>3.736236638283722</v>
+        <v>10</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3736236638283722</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>586.215528546716</v>
+        <v>1569</v>
       </c>
       <c r="S40" t="n">
-        <v>269.009037956428</v>
+        <v>720</v>
       </c>
       <c r="T40" t="n">
-        <v>49896.31943328763</v>
+        <v>133547</v>
       </c>
       <c r="U40" t="n">
-        <v>50103.68056671237</v>
+        <v>134102</v>
       </c>
       <c r="V40" t="n">
-        <v>100000</v>
+        <v>267649</v>
       </c>
     </row>
     <row r="41">
@@ -3282,67 +3282,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.92466134007779</v>
+        <v>271</v>
       </c>
       <c r="C41" t="n">
-        <v>78.36600180107682</v>
+        <v>409</v>
       </c>
       <c r="D41" t="n">
-        <v>147.9182234484873</v>
+        <v>772</v>
       </c>
       <c r="E41" t="n">
-        <v>159.7976662642984</v>
+        <v>834</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1098656856546</v>
+        <v>1702</v>
       </c>
       <c r="G41" t="n">
-        <v>203.8665670326302</v>
+        <v>1064</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1248874326991</v>
+        <v>533</v>
       </c>
       <c r="I41" t="n">
-        <v>665.2487976854247</v>
+        <v>3472</v>
       </c>
       <c r="J41" t="n">
-        <v>788.4501159203694</v>
+        <v>4115</v>
       </c>
       <c r="K41" t="n">
-        <v>19.92680730394129</v>
+        <v>104</v>
       </c>
       <c r="L41" t="n">
-        <v>45.79333601578816</v>
+        <v>239</v>
       </c>
       <c r="M41" t="n">
-        <v>24.71690521354256</v>
+        <v>129</v>
       </c>
       <c r="N41" t="n">
-        <v>121.2852790711042</v>
+        <v>633</v>
       </c>
       <c r="O41" t="n">
-        <v>15.13670939434002</v>
+        <v>79</v>
       </c>
       <c r="P41" t="n">
-        <v>0.1916039163840509</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.532831331072407</v>
+        <v>8</v>
       </c>
       <c r="R41" t="n">
-        <v>594.1637447069419</v>
+        <v>3101</v>
       </c>
       <c r="S41" t="n">
-        <v>267.8622751049031</v>
+        <v>1398</v>
       </c>
       <c r="T41" t="n">
-        <v>48666.05353413424</v>
+        <v>253993</v>
       </c>
       <c r="U41" t="n">
-        <v>51333.94646586577</v>
+        <v>267917</v>
       </c>
       <c r="V41" t="n">
-        <v>100000</v>
+        <v>521910</v>
       </c>
     </row>
     <row r="42">
@@ -3352,67 +3352,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.9210245510353</v>
+        <v>245</v>
       </c>
       <c r="C42" t="n">
-        <v>313.6380720330746</v>
+        <v>1452</v>
       </c>
       <c r="D42" t="n">
-        <v>140.6187223784652</v>
+        <v>651</v>
       </c>
       <c r="E42" t="n">
-        <v>199.5878640210474</v>
+        <v>924</v>
       </c>
       <c r="F42" t="n">
-        <v>437.4084682279449</v>
+        <v>2025</v>
       </c>
       <c r="G42" t="n">
-        <v>161.7871321988794</v>
+        <v>749</v>
       </c>
       <c r="H42" t="n">
-        <v>59.61715418810508</v>
+        <v>276</v>
       </c>
       <c r="I42" t="n">
-        <v>855.5925642720443</v>
+        <v>3961</v>
       </c>
       <c r="J42" t="n">
-        <v>622.740056247489</v>
+        <v>2883</v>
       </c>
       <c r="K42" t="n">
-        <v>37.80073182216807</v>
+        <v>175</v>
       </c>
       <c r="L42" t="n">
-        <v>43.41684055003305</v>
+        <v>201</v>
       </c>
       <c r="M42" t="n">
-        <v>58.10512491521835</v>
+        <v>269</v>
       </c>
       <c r="N42" t="n">
-        <v>158.7630736531059</v>
+        <v>735</v>
       </c>
       <c r="O42" t="n">
-        <v>14.25627600150339</v>
+        <v>66</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.6480125455228813</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>981.7390064671653</v>
+        <v>4545</v>
       </c>
       <c r="S42" t="n">
-        <v>328.5423605801008</v>
+        <v>1521</v>
       </c>
       <c r="T42" t="n">
-        <v>48591.86873857878</v>
+        <v>224958</v>
       </c>
       <c r="U42" t="n">
-        <v>51408.13126142122</v>
+        <v>237996</v>
       </c>
       <c r="V42" t="n">
-        <v>100000</v>
+        <v>462954</v>
       </c>
     </row>
     <row r="43">
@@ -3422,67 +3422,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.04080628293724</v>
+        <v>293</v>
       </c>
       <c r="C43" t="n">
-        <v>151.536899952837</v>
+        <v>1478</v>
       </c>
       <c r="D43" t="n">
-        <v>194.1886931736625</v>
+        <v>1894</v>
       </c>
       <c r="E43" t="n">
-        <v>175.2209485922858</v>
+        <v>1709</v>
       </c>
       <c r="F43" t="n">
-        <v>372.2804355404269</v>
+        <v>3631</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1226033998401</v>
+        <v>1591</v>
       </c>
       <c r="H43" t="n">
-        <v>25.22197387577665</v>
+        <v>246</v>
       </c>
       <c r="I43" t="n">
-        <v>455.020813254865</v>
+        <v>4438</v>
       </c>
       <c r="J43" t="n">
-        <v>300.5105911784609</v>
+        <v>2931</v>
       </c>
       <c r="K43" t="n">
-        <v>52.69957143150081</v>
+        <v>514</v>
       </c>
       <c r="L43" t="n">
-        <v>30.55344802837985</v>
+        <v>298</v>
       </c>
       <c r="M43" t="n">
-        <v>29.22057949022905</v>
+        <v>285</v>
       </c>
       <c r="N43" t="n">
-        <v>84.38083129985441</v>
+        <v>823</v>
       </c>
       <c r="O43" t="n">
-        <v>10.35536325794082</v>
+        <v>101</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6151700945311379</v>
+        <v>6</v>
       </c>
       <c r="R43" t="n">
-        <v>613.1195275493674</v>
+        <v>5980</v>
       </c>
       <c r="S43" t="n">
-        <v>229.4584452601144</v>
+        <v>2238</v>
       </c>
       <c r="T43" t="n">
-        <v>49255.54165726824</v>
+        <v>480409</v>
       </c>
       <c r="U43" t="n">
-        <v>50744.45834273177</v>
+        <v>494931</v>
       </c>
       <c r="V43" t="n">
-        <v>100000</v>
+        <v>975340</v>
       </c>
     </row>
     <row r="44">
@@ -3492,67 +3492,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.34236136994244</v>
+        <v>190</v>
       </c>
       <c r="C44" t="n">
-        <v>59.22060711475546</v>
+        <v>286</v>
       </c>
       <c r="D44" t="n">
-        <v>139.9759804530584</v>
+        <v>676</v>
       </c>
       <c r="E44" t="n">
-        <v>71.85157576510539</v>
+        <v>347</v>
       </c>
       <c r="F44" t="n">
-        <v>350.9752764318549</v>
+        <v>1695</v>
       </c>
       <c r="G44" t="n">
-        <v>65.01842879032593</v>
+        <v>314</v>
       </c>
       <c r="H44" t="n">
-        <v>35.61519029279</v>
+        <v>172</v>
       </c>
       <c r="I44" t="n">
-        <v>495.9208183211165</v>
+        <v>2395</v>
       </c>
       <c r="J44" t="n">
-        <v>244.5438356731685</v>
+        <v>1181</v>
       </c>
       <c r="K44" t="n">
-        <v>25.67606742038348</v>
+        <v>124</v>
       </c>
       <c r="L44" t="n">
-        <v>26.9184577794343</v>
+        <v>130</v>
       </c>
       <c r="M44" t="n">
-        <v>31.47388909595395</v>
+        <v>152</v>
       </c>
       <c r="N44" t="n">
-        <v>160.268356317555</v>
+        <v>774</v>
       </c>
       <c r="O44" t="n">
-        <v>23.19128670228186</v>
+        <v>112</v>
       </c>
       <c r="P44" t="n">
-        <v>1.035325299209011</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4141301196836046</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>483.0827846109247</v>
+        <v>2333</v>
       </c>
       <c r="S44" t="n">
-        <v>255.3112187849422</v>
+        <v>1233</v>
       </c>
       <c r="T44" t="n">
-        <v>48183.21116494803</v>
+        <v>232696</v>
       </c>
       <c r="U44" t="n">
-        <v>51816.78883505197</v>
+        <v>250244</v>
       </c>
       <c r="V44" t="n">
-        <v>100000</v>
+        <v>482940</v>
       </c>
     </row>
     <row r="45">
@@ -3562,46 +3562,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>46.47236790940733</v>
+        <v>245</v>
       </c>
       <c r="C45" t="n">
-        <v>167.4902076081905</v>
+        <v>883</v>
       </c>
       <c r="D45" t="n">
-        <v>148.5218941757794</v>
+        <v>783</v>
       </c>
       <c r="E45" t="n">
-        <v>92.18600328151823</v>
+        <v>486</v>
       </c>
       <c r="F45" t="n">
-        <v>363.6225684993219</v>
+        <v>1917</v>
       </c>
       <c r="G45" t="n">
-        <v>198.4085585030207</v>
+        <v>1046</v>
       </c>
       <c r="H45" t="n">
-        <v>38.50567626779465</v>
+        <v>203</v>
       </c>
       <c r="I45" t="n">
-        <v>549.132673868303</v>
+        <v>2895</v>
       </c>
       <c r="J45" t="n">
-        <v>413.6989159608873</v>
+        <v>2181</v>
       </c>
       <c r="K45" t="n">
-        <v>27.31437134267206</v>
+        <v>144</v>
       </c>
       <c r="L45" t="n">
-        <v>85.16772731152609</v>
+        <v>449</v>
       </c>
       <c r="M45" t="n">
-        <v>42.86838835724922</v>
+        <v>226</v>
       </c>
       <c r="N45" t="n">
-        <v>126.3289674598583</v>
+        <v>666</v>
       </c>
       <c r="O45" t="n">
-        <v>7.20795910431624</v>
+        <v>38</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -3610,19 +3610,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>782.2532459526361</v>
+        <v>4124</v>
       </c>
       <c r="S45" t="n">
-        <v>253.9857168599854</v>
+        <v>1339</v>
       </c>
       <c r="T45" t="n">
-        <v>48718.02653667049</v>
+        <v>256839</v>
       </c>
       <c r="U45" t="n">
-        <v>51281.97346332951</v>
+        <v>270356</v>
       </c>
       <c r="V45" t="n">
-        <v>100000</v>
+        <v>527195</v>
       </c>
     </row>
     <row r="46">
@@ -3632,67 +3632,67 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>178.7641861559434</v>
+        <v>1512</v>
       </c>
       <c r="C46" t="n">
-        <v>199.3362551976988</v>
+        <v>1686</v>
       </c>
       <c r="D46" t="n">
-        <v>221.208857339795</v>
+        <v>1871</v>
       </c>
       <c r="E46" t="n">
-        <v>279.4963862914353</v>
+        <v>2364</v>
       </c>
       <c r="F46" t="n">
-        <v>382.4749617820614</v>
+        <v>3235</v>
       </c>
       <c r="G46" t="n">
-        <v>99.78635788069855</v>
+        <v>844</v>
       </c>
       <c r="H46" t="n">
-        <v>68.92825431806547</v>
+        <v>583</v>
       </c>
       <c r="I46" t="n">
-        <v>728.1803059090313</v>
+        <v>6159</v>
       </c>
       <c r="J46" t="n">
-        <v>580.1559930338718</v>
+        <v>4907</v>
       </c>
       <c r="K46" t="n">
-        <v>46.34627048487421</v>
+        <v>392</v>
       </c>
       <c r="L46" t="n">
-        <v>55.92292331465688</v>
+        <v>473</v>
       </c>
       <c r="M46" t="n">
-        <v>83.70703954921159</v>
+        <v>708</v>
       </c>
       <c r="N46" t="n">
-        <v>298.6496919510006</v>
+        <v>2526</v>
       </c>
       <c r="O46" t="n">
-        <v>12.1777190304644</v>
+        <v>103</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1182302818491689</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8276119729441823</v>
+        <v>7</v>
       </c>
       <c r="R46" t="n">
-        <v>976.7003583559842</v>
+        <v>8261</v>
       </c>
       <c r="S46" t="n">
-        <v>360.8388202036635</v>
+        <v>3052</v>
       </c>
       <c r="T46" t="n">
-        <v>48915.0598186111</v>
+        <v>413727</v>
       </c>
       <c r="U46" t="n">
-        <v>51084.94018138889</v>
+        <v>432080</v>
       </c>
       <c r="V46" t="n">
-        <v>100000</v>
+        <v>845807</v>
       </c>
     </row>
     <row r="47">
@@ -3702,67 +3702,67 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>41.0766219171203</v>
+        <v>337</v>
       </c>
       <c r="C47" t="n">
-        <v>119.5731931771365</v>
+        <v>981</v>
       </c>
       <c r="D47" t="n">
-        <v>187.4654139719021</v>
+        <v>1538</v>
       </c>
       <c r="E47" t="n">
-        <v>183.3211850544479</v>
+        <v>1504</v>
       </c>
       <c r="F47" t="n">
-        <v>276.4444466113615</v>
+        <v>2268</v>
       </c>
       <c r="G47" t="n">
-        <v>132.0058799294993</v>
+        <v>1083</v>
       </c>
       <c r="H47" t="n">
-        <v>54.60631044175042</v>
+        <v>448</v>
       </c>
       <c r="I47" t="n">
-        <v>474.0266547052844</v>
+        <v>3889</v>
       </c>
       <c r="J47" t="n">
-        <v>362.7419193630564</v>
+        <v>2976</v>
       </c>
       <c r="K47" t="n">
-        <v>26.57182070603034</v>
+        <v>218</v>
       </c>
       <c r="L47" t="n">
-        <v>16.82069384143205</v>
+        <v>138</v>
       </c>
       <c r="M47" t="n">
-        <v>33.88516585447906</v>
+        <v>278</v>
       </c>
       <c r="N47" t="n">
-        <v>87.15069635234721</v>
+        <v>715</v>
       </c>
       <c r="O47" t="n">
-        <v>14.38291212528248</v>
+        <v>118</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1218890858074786</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3656672574224359</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>422.3456823229134</v>
+        <v>3465</v>
       </c>
       <c r="S47" t="n">
-        <v>195.1444263777733</v>
+        <v>1601</v>
       </c>
       <c r="T47" t="n">
-        <v>47985.66096794561</v>
+        <v>393683</v>
       </c>
       <c r="U47" t="n">
-        <v>52014.33903205439</v>
+        <v>426735</v>
       </c>
       <c r="V47" t="n">
-        <v>100000</v>
+        <v>820418</v>
       </c>
     </row>
     <row r="48">
@@ -3772,67 +3772,67 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>57.81148829895477</v>
+        <v>250</v>
       </c>
       <c r="C48" t="n">
-        <v>344.5564702617704</v>
+        <v>1490</v>
       </c>
       <c r="D48" t="n">
-        <v>535.1031356951253</v>
+        <v>2314</v>
       </c>
       <c r="E48" t="n">
-        <v>180.1405975395431</v>
+        <v>779</v>
       </c>
       <c r="F48" t="n">
-        <v>512.441032281935</v>
+        <v>2216</v>
       </c>
       <c r="G48" t="n">
-        <v>146.1474424197577</v>
+        <v>632</v>
       </c>
       <c r="H48" t="n">
-        <v>67.06132642678753</v>
+        <v>290</v>
       </c>
       <c r="I48" t="n">
-        <v>695.5878272130238</v>
+        <v>3008</v>
       </c>
       <c r="J48" t="n">
-        <v>812.3670335769124</v>
+        <v>3513</v>
       </c>
       <c r="K48" t="n">
-        <v>27.74951438349829</v>
+        <v>120</v>
       </c>
       <c r="L48" t="n">
-        <v>73.76745906946628</v>
+        <v>319</v>
       </c>
       <c r="M48" t="n">
-        <v>65.67385070761262</v>
+        <v>284</v>
       </c>
       <c r="N48" t="n">
-        <v>115.1604846915179</v>
+        <v>498</v>
       </c>
       <c r="O48" t="n">
-        <v>15.03098695772824</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
-        <v>0.2312459531958191</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.156229765979095</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>719.4061603921931</v>
+        <v>3111</v>
       </c>
       <c r="S48" t="n">
-        <v>369.7622791601147</v>
+        <v>1599</v>
       </c>
       <c r="T48" t="n">
-        <v>48121.58912219036</v>
+        <v>208097</v>
       </c>
       <c r="U48" t="n">
-        <v>51878.41087780963</v>
+        <v>224343</v>
       </c>
       <c r="V48" t="n">
-        <v>100000</v>
+        <v>432440</v>
       </c>
     </row>
     <row r="49">
@@ -3842,67 +3842,67 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>95.28027482853142</v>
+        <v>398</v>
       </c>
       <c r="C49" t="n">
-        <v>59.13122583579714</v>
+        <v>247</v>
       </c>
       <c r="D49" t="n">
-        <v>41.89459320349999</v>
+        <v>175</v>
       </c>
       <c r="E49" t="n">
-        <v>180.0270519373257</v>
+        <v>752</v>
       </c>
       <c r="F49" t="n">
-        <v>189.8423566307171</v>
+        <v>793</v>
       </c>
       <c r="G49" t="n">
-        <v>120.8958261015286</v>
+        <v>505</v>
       </c>
       <c r="H49" t="n">
-        <v>129.5141424176771</v>
+        <v>541</v>
       </c>
       <c r="I49" t="n">
-        <v>475.4437834408628</v>
+        <v>1986</v>
       </c>
       <c r="J49" t="n">
-        <v>434.2673832637085</v>
+        <v>1814</v>
       </c>
       <c r="K49" t="n">
-        <v>51.47050022144285</v>
+        <v>215</v>
       </c>
       <c r="L49" t="n">
-        <v>46.44314903702285</v>
+        <v>194</v>
       </c>
       <c r="M49" t="n">
-        <v>140.2870378128628</v>
+        <v>586</v>
       </c>
       <c r="N49" t="n">
-        <v>247.0584010629257</v>
+        <v>1032</v>
       </c>
       <c r="O49" t="n">
-        <v>6.463737237111427</v>
+        <v>27</v>
       </c>
       <c r="P49" t="n">
-        <v>1.196988377242857</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7181930263457142</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>306.4290245741714</v>
+        <v>1280</v>
       </c>
       <c r="S49" t="n">
-        <v>322.7080665046742</v>
+        <v>1348</v>
       </c>
       <c r="T49" t="n">
-        <v>47170.67857271106</v>
+        <v>197039</v>
       </c>
       <c r="U49" t="n">
-        <v>52829.32142728895</v>
+        <v>220676</v>
       </c>
       <c r="V49" t="n">
-        <v>100000</v>
+        <v>417715</v>
       </c>
     </row>
     <row r="50">
@@ -3912,67 +3912,67 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>58.30575538121911</v>
+        <v>290</v>
       </c>
       <c r="C50" t="n">
-        <v>239.0535970629984</v>
+        <v>1189</v>
       </c>
       <c r="D50" t="n">
-        <v>92.08288263654605</v>
+        <v>458</v>
       </c>
       <c r="E50" t="n">
-        <v>187.7847431933057</v>
+        <v>934</v>
       </c>
       <c r="F50" t="n">
-        <v>332.3428056729489</v>
+        <v>1653</v>
       </c>
       <c r="G50" t="n">
-        <v>72.17850407537124</v>
+        <v>359</v>
       </c>
       <c r="H50" t="n">
-        <v>25.3328454414952</v>
+        <v>126</v>
       </c>
       <c r="I50" t="n">
-        <v>312.4384271117742</v>
+        <v>1554</v>
       </c>
       <c r="J50" t="n">
-        <v>314.4489704007817</v>
+        <v>1564</v>
       </c>
       <c r="K50" t="n">
-        <v>24.72968245479293</v>
+        <v>123</v>
       </c>
       <c r="L50" t="n">
-        <v>16.48645496986196</v>
+        <v>82</v>
       </c>
       <c r="M50" t="n">
-        <v>26.94128007270124</v>
+        <v>134</v>
       </c>
       <c r="N50" t="n">
-        <v>86.85547008512641</v>
+        <v>432</v>
       </c>
       <c r="O50" t="n">
-        <v>9.650607787236266</v>
+        <v>48</v>
       </c>
       <c r="P50" t="n">
-        <v>0.2010543289007556</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>564.5605555533216</v>
+        <v>2808</v>
       </c>
       <c r="S50" t="n">
-        <v>284.6929297234699</v>
+        <v>1416</v>
       </c>
       <c r="T50" t="n">
-        <v>49475.44925589793</v>
+        <v>246080</v>
       </c>
       <c r="U50" t="n">
-        <v>50524.55074410207</v>
+        <v>251298</v>
       </c>
       <c r="V50" t="n">
-        <v>100000</v>
+        <v>497378</v>
       </c>
     </row>
     <row r="51">
@@ -3982,67 +3982,67 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>62.73968094973775</v>
+        <v>347</v>
       </c>
       <c r="C51" t="n">
-        <v>93.29589443822672</v>
+        <v>516</v>
       </c>
       <c r="D51" t="n">
-        <v>178.2747130156813</v>
+        <v>986</v>
       </c>
       <c r="E51" t="n">
-        <v>184.6029229097471</v>
+        <v>1021</v>
       </c>
       <c r="F51" t="n">
-        <v>379.8733996409193</v>
+        <v>2101</v>
       </c>
       <c r="G51" t="n">
-        <v>91.66864046546696</v>
+        <v>507</v>
       </c>
       <c r="H51" t="n">
-        <v>60.93162098000467</v>
+        <v>337</v>
       </c>
       <c r="I51" t="n">
-        <v>550.0118427928018</v>
+        <v>3042</v>
       </c>
       <c r="J51" t="n">
-        <v>361.6119939466152</v>
+        <v>2000</v>
       </c>
       <c r="K51" t="n">
-        <v>75.57690673484258</v>
+        <v>418</v>
       </c>
       <c r="L51" t="n">
-        <v>35.6187814037416</v>
+        <v>197</v>
       </c>
       <c r="M51" t="n">
-        <v>65.27096490736405</v>
+        <v>361</v>
       </c>
       <c r="N51" t="n">
-        <v>185.145340900667</v>
+        <v>1024</v>
       </c>
       <c r="O51" t="n">
-        <v>16.81495771851761</v>
+        <v>93</v>
       </c>
       <c r="P51" t="n">
-        <v>0.3616119939466153</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1808059969733076</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>322.0154806094608</v>
+        <v>1781</v>
       </c>
       <c r="S51" t="n">
-        <v>301.4035969545038</v>
+        <v>1667</v>
       </c>
       <c r="T51" t="n">
-        <v>49477.56107174563</v>
+        <v>273650</v>
       </c>
       <c r="U51" t="n">
-        <v>50522.43892825438</v>
+        <v>279429</v>
       </c>
       <c r="V51" t="n">
-        <v>100000</v>
+        <v>553079</v>
       </c>
     </row>
     <row r="52">
@@ -4052,67 +4052,67 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>28.29611108538737</v>
+        <v>55</v>
       </c>
       <c r="C52" t="n">
-        <v>72.54093932799309</v>
+        <v>141</v>
       </c>
       <c r="D52" t="n">
-        <v>128.6186867517608</v>
+        <v>250</v>
       </c>
       <c r="E52" t="n">
-        <v>117.3002423176058</v>
+        <v>228</v>
       </c>
       <c r="F52" t="n">
-        <v>341.0967572656696</v>
+        <v>663</v>
       </c>
       <c r="G52" t="n">
-        <v>179.037211958451</v>
+        <v>348</v>
       </c>
       <c r="H52" t="n">
-        <v>52.99089894172545</v>
+        <v>103</v>
       </c>
       <c r="I52" t="n">
-        <v>856.6004537667269</v>
+        <v>1665</v>
       </c>
       <c r="J52" t="n">
-        <v>507.2721005489445</v>
+        <v>986</v>
       </c>
       <c r="K52" t="n">
-        <v>29.83953532640851</v>
+        <v>58</v>
       </c>
       <c r="L52" t="n">
-        <v>4.115797976056345</v>
+        <v>8</v>
       </c>
       <c r="M52" t="n">
-        <v>74.59883831602126</v>
+        <v>145</v>
       </c>
       <c r="N52" t="n">
-        <v>137.8792321978876</v>
+        <v>268</v>
       </c>
       <c r="O52" t="n">
-        <v>7.202646458098605</v>
+        <v>14</v>
       </c>
       <c r="P52" t="n">
-        <v>1.028949494014086</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>437.3035349559867</v>
+        <v>850</v>
       </c>
       <c r="S52" t="n">
-        <v>273.700565407747</v>
+        <v>532</v>
       </c>
       <c r="T52" t="n">
-        <v>50355.75928755537</v>
+        <v>97878</v>
       </c>
       <c r="U52" t="n">
-        <v>49644.24071244463</v>
+        <v>96495</v>
       </c>
       <c r="V52" t="n">
-        <v>100000</v>
+        <v>194373</v>
       </c>
     </row>
     <row r="53">
@@ -4122,67 +4122,67 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>43.14661079911215</v>
+        <v>374</v>
       </c>
       <c r="C53" t="n">
-        <v>94.59952100340097</v>
+        <v>820</v>
       </c>
       <c r="D53" t="n">
-        <v>100.3677844792181</v>
+        <v>870</v>
       </c>
       <c r="E53" t="n">
-        <v>151.0131377968925</v>
+        <v>1309</v>
       </c>
       <c r="F53" t="n">
-        <v>265.3401198875881</v>
+        <v>2300</v>
       </c>
       <c r="G53" t="n">
-        <v>122.0564551482905</v>
+        <v>1058</v>
       </c>
       <c r="H53" t="n">
-        <v>66.56576051092971</v>
+        <v>577</v>
       </c>
       <c r="I53" t="n">
-        <v>549.7155092453727</v>
+        <v>4765</v>
       </c>
       <c r="J53" t="n">
-        <v>395.933604980088</v>
+        <v>3432</v>
       </c>
       <c r="K53" t="n">
-        <v>33.8020239682884</v>
+        <v>293</v>
       </c>
       <c r="L53" t="n">
-        <v>61.25895811317794</v>
+        <v>531</v>
       </c>
       <c r="M53" t="n">
-        <v>67.83477847560948</v>
+        <v>588</v>
       </c>
       <c r="N53" t="n">
-        <v>180.8927426016253</v>
+        <v>1568</v>
       </c>
       <c r="O53" t="n">
-        <v>10.2675089869545</v>
+        <v>89</v>
       </c>
       <c r="P53" t="n">
-        <v>1.73047904274514</v>
+        <v>15</v>
       </c>
       <c r="Q53" t="n">
-        <v>4.960706589202734</v>
+        <v>43</v>
       </c>
       <c r="R53" t="n">
-        <v>535.5255810948626</v>
+        <v>4642</v>
       </c>
       <c r="S53" t="n">
-        <v>300.9879881681379</v>
+        <v>2609</v>
       </c>
       <c r="T53" t="n">
-        <v>48570.16284961445</v>
+        <v>421012</v>
       </c>
       <c r="U53" t="n">
-        <v>51429.83715038555</v>
+        <v>445800</v>
       </c>
       <c r="V53" t="n">
-        <v>100000</v>
+        <v>866812</v>
       </c>
     </row>
     <row r="54">
@@ -4192,67 +4192,67 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>132.020361296604</v>
+        <v>998</v>
       </c>
       <c r="C54" t="n">
-        <v>94.31915591631126</v>
+        <v>713</v>
       </c>
       <c r="D54" t="n">
-        <v>108.8704983437927</v>
+        <v>823</v>
       </c>
       <c r="E54" t="n">
-        <v>93.39316139819881</v>
+        <v>706</v>
       </c>
       <c r="F54" t="n">
-        <v>179.5106515826569</v>
+        <v>1357</v>
       </c>
       <c r="G54" t="n">
-        <v>149.8788270030584</v>
+        <v>1133</v>
       </c>
       <c r="H54" t="n">
-        <v>51.59112315197952</v>
+        <v>390</v>
       </c>
       <c r="I54" t="n">
-        <v>371.0592319007757</v>
+        <v>2805</v>
       </c>
       <c r="J54" t="n">
-        <v>591.3136422803806</v>
+        <v>4470</v>
       </c>
       <c r="K54" t="n">
-        <v>14.15448763400464</v>
+        <v>107</v>
       </c>
       <c r="L54" t="n">
-        <v>13.49306297821003</v>
+        <v>102</v>
       </c>
       <c r="M54" t="n">
-        <v>24.73728212671838</v>
+        <v>187</v>
       </c>
       <c r="N54" t="n">
-        <v>75.93155048522112</v>
+        <v>574</v>
       </c>
       <c r="O54" t="n">
-        <v>23.14986295281132</v>
+        <v>175</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2645698623178436</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.719704105065984</v>
+        <v>13</v>
       </c>
       <c r="R54" t="n">
-        <v>450.0333358026521</v>
+        <v>3402</v>
       </c>
       <c r="S54" t="n">
-        <v>345.1313853936271</v>
+        <v>2609</v>
       </c>
       <c r="T54" t="n">
-        <v>49099.80104346354</v>
+        <v>371167</v>
       </c>
       <c r="U54" t="n">
-        <v>50900.19895653646</v>
+        <v>384777</v>
       </c>
       <c r="V54" t="n">
-        <v>100000</v>
+        <v>755944</v>
       </c>
     </row>
     <row r="55">
@@ -4262,67 +4262,67 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28.24769123493489</v>
+        <v>365</v>
       </c>
       <c r="C55" t="n">
-        <v>259.1048500124986</v>
+        <v>3348</v>
       </c>
       <c r="D55" t="n">
-        <v>222.4989378094186</v>
+        <v>2875</v>
       </c>
       <c r="E55" t="n">
-        <v>194.019073769813</v>
+        <v>2507</v>
       </c>
       <c r="F55" t="n">
-        <v>551.719974832468</v>
+        <v>7129</v>
       </c>
       <c r="G55" t="n">
-        <v>270.868272115814</v>
+        <v>3500</v>
       </c>
       <c r="H55" t="n">
-        <v>20.04425213657024</v>
+        <v>259</v>
       </c>
       <c r="I55" t="n">
-        <v>332.8584109628903</v>
+        <v>4301</v>
       </c>
       <c r="J55" t="n">
-        <v>418.4527849514874</v>
+        <v>5407</v>
       </c>
       <c r="K55" t="n">
-        <v>28.47986403960558</v>
+        <v>368</v>
       </c>
       <c r="L55" t="n">
-        <v>10.52516714507163</v>
+        <v>136</v>
       </c>
       <c r="M55" t="n">
-        <v>41.55893203605488</v>
+        <v>537</v>
       </c>
       <c r="N55" t="n">
-        <v>149.1323315334782</v>
+        <v>1927</v>
       </c>
       <c r="O55" t="n">
-        <v>14.54949575936372</v>
+        <v>188</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.9286912186827908</v>
+        <v>12</v>
       </c>
       <c r="R55" t="n">
-        <v>394.6163770052959</v>
+        <v>5099</v>
       </c>
       <c r="S55" t="n">
-        <v>283.6377763727024</v>
+        <v>3665</v>
       </c>
       <c r="T55" t="n">
-        <v>49488.94896145235</v>
+        <v>639467</v>
       </c>
       <c r="U55" t="n">
-        <v>50511.05103854765</v>
+        <v>652674</v>
       </c>
       <c r="V55" t="n">
-        <v>100000</v>
+        <v>1292141</v>
       </c>
     </row>
     <row r="56">
@@ -4332,67 +4332,67 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>30.59170040053785</v>
+        <v>172</v>
       </c>
       <c r="C56" t="n">
-        <v>232.6392100226948</v>
+        <v>1308</v>
       </c>
       <c r="D56" t="n">
-        <v>153.669936895725</v>
+        <v>864</v>
       </c>
       <c r="E56" t="n">
-        <v>180.704462831084</v>
+        <v>1016</v>
       </c>
       <c r="F56" t="n">
-        <v>431.8409800727086</v>
+        <v>2428</v>
       </c>
       <c r="G56" t="n">
-        <v>170.9222330518423</v>
+        <v>961</v>
       </c>
       <c r="H56" t="n">
-        <v>54.42476931723593</v>
+        <v>306</v>
       </c>
       <c r="I56" t="n">
-        <v>389.5106039370807</v>
+        <v>2190</v>
       </c>
       <c r="J56" t="n">
-        <v>338.1094329152468</v>
+        <v>1901</v>
       </c>
       <c r="K56" t="n">
-        <v>54.95834548701276</v>
+        <v>309</v>
       </c>
       <c r="L56" t="n">
-        <v>19.74231828174245</v>
+        <v>111</v>
       </c>
       <c r="M56" t="n">
-        <v>56.55907399634322</v>
+        <v>318</v>
       </c>
       <c r="N56" t="n">
-        <v>101.7351897041142</v>
+        <v>572</v>
       </c>
       <c r="O56" t="n">
-        <v>9.604371055982812</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
-        <v>0.355717446517882</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8892936162947048</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>375.4597647996243</v>
+        <v>2111</v>
       </c>
       <c r="S56" t="n">
-        <v>207.5611300431841</v>
+        <v>1167</v>
       </c>
       <c r="T56" t="n">
-        <v>49968.51900598317</v>
+        <v>280945</v>
       </c>
       <c r="U56" t="n">
-        <v>50031.48099401683</v>
+        <v>281299</v>
       </c>
       <c r="V56" t="n">
-        <v>100000</v>
+        <v>562244</v>
       </c>
     </row>
     <row r="57">
@@ -4402,67 +4402,67 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>30.48426304512457</v>
+        <v>349</v>
       </c>
       <c r="C57" t="n">
-        <v>979.165010704431</v>
+        <v>11210</v>
       </c>
       <c r="D57" t="n">
-        <v>190.5921546259651</v>
+        <v>2182</v>
       </c>
       <c r="E57" t="n">
-        <v>1156.480351625929</v>
+        <v>13240</v>
       </c>
       <c r="F57" t="n">
-        <v>516.3108276783132</v>
+        <v>5911</v>
       </c>
       <c r="G57" t="n">
-        <v>161.2434085424068</v>
+        <v>1846</v>
       </c>
       <c r="H57" t="n">
-        <v>29.87283083505044</v>
+        <v>342</v>
       </c>
       <c r="I57" t="n">
-        <v>412.804089258621</v>
+        <v>4726</v>
       </c>
       <c r="J57" t="n">
-        <v>245.1843162397268</v>
+        <v>2807</v>
       </c>
       <c r="K57" t="n">
-        <v>16.77071204774762</v>
+        <v>192</v>
       </c>
       <c r="L57" t="n">
-        <v>9.433525526858034</v>
+        <v>108</v>
       </c>
       <c r="M57" t="n">
-        <v>15.98458492050944</v>
+        <v>183</v>
       </c>
       <c r="N57" t="n">
-        <v>55.02889890667186</v>
+        <v>630</v>
       </c>
       <c r="O57" t="n">
-        <v>10.13230519551418</v>
+        <v>116</v>
       </c>
       <c r="P57" t="n">
-        <v>0.3493898343280753</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>10.56904248842428</v>
+        <v>121</v>
       </c>
       <c r="R57" t="n">
-        <v>456.9145558425405</v>
+        <v>5231</v>
       </c>
       <c r="S57" t="n">
-        <v>261.5182909945644</v>
+        <v>2994</v>
       </c>
       <c r="T57" t="n">
-        <v>49623.22673740646</v>
+        <v>568113</v>
       </c>
       <c r="U57" t="n">
-        <v>50376.77326259353</v>
+        <v>576740</v>
       </c>
       <c r="V57" t="n">
-        <v>100000</v>
+        <v>1144853</v>
       </c>
     </row>
     <row r="58">
@@ -4472,67 +4472,67 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>26.15812327623494</v>
+        <v>355</v>
       </c>
       <c r="C58" t="n">
-        <v>54.52679218144748</v>
+        <v>740</v>
       </c>
       <c r="D58" t="n">
-        <v>42.00036695057441</v>
+        <v>570</v>
       </c>
       <c r="E58" t="n">
-        <v>43.69511859945724</v>
+        <v>593</v>
       </c>
       <c r="F58" t="n">
-        <v>189.1490209861833</v>
+        <v>2567</v>
       </c>
       <c r="G58" t="n">
-        <v>50.84254946648481</v>
+        <v>690</v>
       </c>
       <c r="H58" t="n">
-        <v>24.97916560744689</v>
+        <v>339</v>
       </c>
       <c r="I58" t="n">
-        <v>322.5186072678319</v>
+        <v>4377</v>
       </c>
       <c r="J58" t="n">
-        <v>292.7499261309336</v>
+        <v>3973</v>
       </c>
       <c r="K58" t="n">
-        <v>83.92704904684958</v>
+        <v>1139</v>
       </c>
       <c r="L58" t="n">
-        <v>64.99004149194145</v>
+        <v>882</v>
       </c>
       <c r="M58" t="n">
-        <v>287.6656711842851</v>
+        <v>3904</v>
       </c>
       <c r="N58" t="n">
-        <v>375.4243326546958</v>
+        <v>5095</v>
       </c>
       <c r="O58" t="n">
-        <v>8.694812807311896</v>
+        <v>118</v>
       </c>
       <c r="P58" t="n">
-        <v>0.5157939800947735</v>
+        <v>7</v>
       </c>
       <c r="Q58" t="n">
-        <v>4.273721549356694</v>
+        <v>58</v>
       </c>
       <c r="R58" t="n">
-        <v>316.0343400894976</v>
+        <v>4289</v>
       </c>
       <c r="S58" t="n">
-        <v>175.8857472123178</v>
+        <v>2387</v>
       </c>
       <c r="T58" t="n">
-        <v>47572.26826297535</v>
+        <v>645618</v>
       </c>
       <c r="U58" t="n">
-        <v>52427.73173702465</v>
+        <v>711513</v>
       </c>
       <c r="V58" t="n">
-        <v>100000</v>
+        <v>1357131</v>
       </c>
     </row>
     <row r="59">
@@ -4542,67 +4542,67 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>109.6273181078835</v>
+        <v>645</v>
       </c>
       <c r="C59" t="n">
-        <v>105.7181269195404</v>
+        <v>622</v>
       </c>
       <c r="D59" t="n">
-        <v>48.60994260287546</v>
+        <v>286</v>
       </c>
       <c r="E59" t="n">
-        <v>65.6064260304543</v>
+        <v>386</v>
       </c>
       <c r="F59" t="n">
-        <v>209.9065703305986</v>
+        <v>1235</v>
       </c>
       <c r="G59" t="n">
-        <v>114.3863334676056</v>
+        <v>673</v>
       </c>
       <c r="H59" t="n">
-        <v>49.96966127708177</v>
+        <v>294</v>
       </c>
       <c r="I59" t="n">
-        <v>626.8303088091074</v>
+        <v>3688</v>
       </c>
       <c r="J59" t="n">
-        <v>482.3601996746873</v>
+        <v>2838</v>
       </c>
       <c r="K59" t="n">
-        <v>54.89864147107963</v>
+        <v>323</v>
       </c>
       <c r="L59" t="n">
-        <v>116.5958763131908</v>
+        <v>686</v>
       </c>
       <c r="M59" t="n">
-        <v>94.6704126916141</v>
+        <v>557</v>
       </c>
       <c r="N59" t="n">
-        <v>334.4907938547515</v>
+        <v>1968</v>
       </c>
       <c r="O59" t="n">
-        <v>20.05585044454302</v>
+        <v>118</v>
       </c>
       <c r="P59" t="n">
-        <v>0.1699648342757883</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>7.478452708134687</v>
+        <v>44</v>
       </c>
       <c r="R59" t="n">
-        <v>460.2647712188348</v>
+        <v>2708</v>
       </c>
       <c r="S59" t="n">
-        <v>248.3186228769268</v>
+        <v>1461</v>
       </c>
       <c r="T59" t="n">
-        <v>48116.02479447002</v>
+        <v>283094</v>
       </c>
       <c r="U59" t="n">
-        <v>51883.97520552998</v>
+        <v>305263</v>
       </c>
       <c r="V59" t="n">
-        <v>100000</v>
+        <v>588357</v>
       </c>
     </row>
     <row r="60">
@@ -4612,46 +4612,46 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>64.246707356248</v>
+        <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>40.02253900881023</v>
+        <v>76</v>
       </c>
       <c r="D60" t="n">
-        <v>114.2748811172608</v>
+        <v>217</v>
       </c>
       <c r="E60" t="n">
-        <v>872.5966728631388</v>
+        <v>1657</v>
       </c>
       <c r="F60" t="n">
-        <v>376.0012217406645</v>
+        <v>714</v>
       </c>
       <c r="G60" t="n">
-        <v>93.73699925747658</v>
+        <v>178</v>
       </c>
       <c r="H60" t="n">
-        <v>39.49592665343115</v>
+        <v>75</v>
       </c>
       <c r="I60" t="n">
-        <v>439.1947043861543</v>
+        <v>834</v>
       </c>
       <c r="J60" t="n">
-        <v>398.645553021965</v>
+        <v>757</v>
       </c>
       <c r="K60" t="n">
-        <v>25.27739305819593</v>
+        <v>48</v>
       </c>
       <c r="L60" t="n">
-        <v>21.59110657054236</v>
+        <v>41</v>
       </c>
       <c r="M60" t="n">
-        <v>45.81527491798013</v>
+        <v>87</v>
       </c>
       <c r="N60" t="n">
-        <v>195.3731838456394</v>
+        <v>371</v>
       </c>
       <c r="O60" t="n">
-        <v>8.425797686065311</v>
+        <v>16</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -4660,19 +4660,19 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>506.6010858746768</v>
+        <v>962</v>
       </c>
       <c r="S60" t="n">
-        <v>221.1771892592144</v>
+        <v>420</v>
       </c>
       <c r="T60" t="n">
-        <v>47687.38184135276</v>
+        <v>90555</v>
       </c>
       <c r="U60" t="n">
-        <v>52312.61815864724</v>
+        <v>99338</v>
       </c>
       <c r="V60" t="n">
-        <v>100000</v>
+        <v>189893</v>
       </c>
     </row>
     <row r="61">
@@ -4682,67 +4682,67 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>72.16075483578364</v>
+        <v>463</v>
       </c>
       <c r="C61" t="n">
-        <v>456.1868885622866</v>
+        <v>2927</v>
       </c>
       <c r="D61" t="n">
-        <v>60.93921196715205</v>
+        <v>391</v>
       </c>
       <c r="E61" t="n">
-        <v>114.0856858310877</v>
+        <v>732</v>
       </c>
       <c r="F61" t="n">
-        <v>418.3141813806549</v>
+        <v>2684</v>
       </c>
       <c r="G61" t="n">
-        <v>82.60302389409357</v>
+        <v>530</v>
       </c>
       <c r="H61" t="n">
-        <v>43.17176909181872</v>
+        <v>277</v>
       </c>
       <c r="I61" t="n">
-        <v>585.5463410756784</v>
+        <v>3757</v>
       </c>
       <c r="J61" t="n">
-        <v>436.7050433042456</v>
+        <v>2802</v>
       </c>
       <c r="K61" t="n">
-        <v>34.5997571782807</v>
+        <v>222</v>
       </c>
       <c r="L61" t="n">
-        <v>82.7588786561579</v>
+        <v>531</v>
       </c>
       <c r="M61" t="n">
-        <v>52.36720005361403</v>
+        <v>336</v>
       </c>
       <c r="N61" t="n">
-        <v>175.4924620844328</v>
+        <v>1126</v>
       </c>
       <c r="O61" t="n">
-        <v>16.36475001675439</v>
+        <v>105</v>
       </c>
       <c r="P61" t="n">
-        <v>0.1558547620643275</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.4675642861929825</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>791.2746270005906</v>
+        <v>5077</v>
       </c>
       <c r="S61" t="n">
-        <v>298.6177241152515</v>
+        <v>1916</v>
       </c>
       <c r="T61" t="n">
-        <v>49170.46302891261</v>
+        <v>315489</v>
       </c>
       <c r="U61" t="n">
-        <v>50829.53697108739</v>
+        <v>326134</v>
       </c>
       <c r="V61" t="n">
-        <v>100000</v>
+        <v>641623</v>
       </c>
     </row>
     <row r="62">
@@ -4752,67 +4752,67 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>39.0831763851447</v>
+        <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>27.69673917057499</v>
+        <v>90</v>
       </c>
       <c r="D62" t="n">
-        <v>54.77799524847052</v>
+        <v>178</v>
       </c>
       <c r="E62" t="n">
-        <v>252.9635510912515</v>
+        <v>822</v>
       </c>
       <c r="F62" t="n">
-        <v>328.6679714908232</v>
+        <v>1068</v>
       </c>
       <c r="G62" t="n">
-        <v>140.3301451309133</v>
+        <v>456</v>
       </c>
       <c r="H62" t="n">
-        <v>57.2399276191883</v>
+        <v>186</v>
       </c>
       <c r="I62" t="n">
-        <v>567.4754114504474</v>
+        <v>1844</v>
       </c>
       <c r="J62" t="n">
-        <v>704.1126580252841</v>
+        <v>2288</v>
       </c>
       <c r="K62" t="n">
-        <v>31.08189618031193</v>
+        <v>101</v>
       </c>
       <c r="L62" t="n">
-        <v>46.16123195095831</v>
+        <v>150</v>
       </c>
       <c r="M62" t="n">
-        <v>27.08125607789554</v>
+        <v>88</v>
       </c>
       <c r="N62" t="n">
-        <v>101.5547102921083</v>
+        <v>330</v>
       </c>
       <c r="O62" t="n">
-        <v>8.309021751172496</v>
+        <v>27</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.53870773169861</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>486.5393847631005</v>
+        <v>1581</v>
       </c>
       <c r="S62" t="n">
-        <v>226.1900365596957</v>
+        <v>735</v>
       </c>
       <c r="T62" t="n">
-        <v>49757.4996614843</v>
+        <v>161686</v>
       </c>
       <c r="U62" t="n">
-        <v>50242.5003385157</v>
+        <v>163262</v>
       </c>
       <c r="V62" t="n">
-        <v>100000</v>
+        <v>324948</v>
       </c>
     </row>
     <row r="63">
@@ -4822,67 +4822,67 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>65.08600011821322</v>
+        <v>947</v>
       </c>
       <c r="C63" t="n">
-        <v>484.2618340368853</v>
+        <v>7046</v>
       </c>
       <c r="D63" t="n">
-        <v>195.1205431210215</v>
+        <v>2839</v>
       </c>
       <c r="E63" t="n">
-        <v>203.2992485213038</v>
+        <v>2958</v>
       </c>
       <c r="F63" t="n">
-        <v>554.8461234998261</v>
+        <v>8073</v>
       </c>
       <c r="G63" t="n">
-        <v>348.3166299884948</v>
+        <v>5068</v>
       </c>
       <c r="H63" t="n">
-        <v>31.13406341452016</v>
+        <v>453</v>
       </c>
       <c r="I63" t="n">
-        <v>482.9559903175125</v>
+        <v>7027</v>
       </c>
       <c r="J63" t="n">
-        <v>595.8083791180469</v>
+        <v>8669</v>
       </c>
       <c r="K63" t="n">
-        <v>35.87633797434773</v>
+        <v>522</v>
       </c>
       <c r="L63" t="n">
-        <v>13.53953751139177</v>
+        <v>197</v>
       </c>
       <c r="M63" t="n">
-        <v>31.13406341452016</v>
+        <v>453</v>
       </c>
       <c r="N63" t="n">
-        <v>165.7046951267287</v>
+        <v>2411</v>
       </c>
       <c r="O63" t="n">
-        <v>8.591077101136909</v>
+        <v>125</v>
       </c>
       <c r="P63" t="n">
-        <v>0.2749144672363811</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.8934720185182385</v>
+        <v>13</v>
       </c>
       <c r="R63" t="n">
-        <v>399.2445350440344</v>
+        <v>5809</v>
       </c>
       <c r="S63" t="n">
-        <v>297.182539082528</v>
+        <v>4324</v>
       </c>
       <c r="T63" t="n">
-        <v>49736.56321177074</v>
+        <v>723666</v>
       </c>
       <c r="U63" t="n">
-        <v>50263.43678822926</v>
+        <v>731332</v>
       </c>
       <c r="V63" t="n">
-        <v>100000</v>
+        <v>1454998</v>
       </c>
     </row>
     <row r="64">
@@ -4892,67 +4892,67 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>243.3353160655383</v>
+        <v>495</v>
       </c>
       <c r="C64" t="n">
-        <v>150.917054610344</v>
+        <v>307</v>
       </c>
       <c r="D64" t="n">
-        <v>158.7824385639775</v>
+        <v>323</v>
       </c>
       <c r="E64" t="n">
-        <v>111.5901348421762</v>
+        <v>227</v>
       </c>
       <c r="F64" t="n">
-        <v>394.7439571729844</v>
+        <v>803</v>
       </c>
       <c r="G64" t="n">
-        <v>196.634598840839</v>
+        <v>400</v>
       </c>
       <c r="H64" t="n">
-        <v>62.92307162906849</v>
+        <v>128</v>
       </c>
       <c r="I64" t="n">
-        <v>1316.468639239417</v>
+        <v>2678</v>
       </c>
       <c r="J64" t="n">
-        <v>869.1249268765087</v>
+        <v>1768</v>
       </c>
       <c r="K64" t="n">
-        <v>38.83533327106571</v>
+        <v>79</v>
       </c>
       <c r="L64" t="n">
-        <v>24.57932485510488</v>
+        <v>50</v>
       </c>
       <c r="M64" t="n">
-        <v>35.88581428845313</v>
+        <v>73</v>
       </c>
       <c r="N64" t="n">
-        <v>172.0552739857341</v>
+        <v>350</v>
       </c>
       <c r="O64" t="n">
-        <v>15.23918141016503</v>
+        <v>31</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.949518982612585</v>
+        <v>6</v>
       </c>
       <c r="R64" t="n">
-        <v>1658.121254725375</v>
+        <v>3373</v>
       </c>
       <c r="S64" t="n">
-        <v>261.5240164583159</v>
+        <v>532</v>
       </c>
       <c r="T64" t="n">
-        <v>47472.50802514957</v>
+        <v>96570</v>
       </c>
       <c r="U64" t="n">
-        <v>52527.49197485044</v>
+        <v>106853</v>
       </c>
       <c r="V64" t="n">
-        <v>100000</v>
+        <v>203423</v>
       </c>
     </row>
     <row r="65">
@@ -4962,67 +4962,67 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>83.29280495508337</v>
+        <v>1192</v>
       </c>
       <c r="C65" t="n">
-        <v>122.633282463231</v>
+        <v>1755</v>
       </c>
       <c r="D65" t="n">
-        <v>192.9290557726386</v>
+        <v>2761</v>
       </c>
       <c r="E65" t="n">
-        <v>743.3463583155847</v>
+        <v>10638</v>
       </c>
       <c r="F65" t="n">
-        <v>408.0089665543052</v>
+        <v>5839</v>
       </c>
       <c r="G65" t="n">
-        <v>219.6218842062308</v>
+        <v>3143</v>
       </c>
       <c r="H65" t="n">
-        <v>139.263892848558</v>
+        <v>1993</v>
       </c>
       <c r="I65" t="n">
-        <v>728.9517963854277</v>
+        <v>10432</v>
       </c>
       <c r="J65" t="n">
-        <v>755.7145013332439</v>
+        <v>10815</v>
       </c>
       <c r="K65" t="n">
-        <v>43.95232744693578</v>
+        <v>629</v>
       </c>
       <c r="L65" t="n">
-        <v>39.27060099392354</v>
+        <v>562</v>
       </c>
       <c r="M65" t="n">
-        <v>78.61107850207114</v>
+        <v>1125</v>
       </c>
       <c r="N65" t="n">
-        <v>219.971266777351</v>
+        <v>3148</v>
       </c>
       <c r="O65" t="n">
-        <v>13.69579678791639</v>
+        <v>196</v>
       </c>
       <c r="P65" t="n">
-        <v>1.048147713360948</v>
+        <v>15</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.4192590853443794</v>
+        <v>6</v>
       </c>
       <c r="R65" t="n">
-        <v>558.3832251644893</v>
+        <v>7991</v>
       </c>
       <c r="S65" t="n">
-        <v>301.4472823626088</v>
+        <v>4314</v>
       </c>
       <c r="T65" t="n">
-        <v>48689.88523481304</v>
+        <v>696799</v>
       </c>
       <c r="U65" t="n">
-        <v>51310.11476518696</v>
+        <v>734297</v>
       </c>
       <c r="V65" t="n">
-        <v>100000</v>
+        <v>1431096</v>
       </c>
     </row>
     <row r="66">
@@ -5032,67 +5032,67 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>69.47935090846396</v>
+        <v>405</v>
       </c>
       <c r="C66" t="n">
-        <v>183.7342835134936</v>
+        <v>1071</v>
       </c>
       <c r="D66" t="n">
-        <v>359.2339772896877</v>
+        <v>2094</v>
       </c>
       <c r="E66" t="n">
-        <v>128.1508027867224</v>
+        <v>747</v>
       </c>
       <c r="F66" t="n">
-        <v>353.2295889395735</v>
+        <v>2059</v>
       </c>
       <c r="G66" t="n">
-        <v>102.2461559048013</v>
+        <v>596</v>
       </c>
       <c r="H66" t="n">
-        <v>42.5453803093804</v>
+        <v>248</v>
       </c>
       <c r="I66" t="n">
-        <v>684.3287179601549</v>
+        <v>3989</v>
       </c>
       <c r="J66" t="n">
-        <v>360.7779628654314</v>
+        <v>2103</v>
       </c>
       <c r="K66" t="n">
-        <v>33.79612871349975</v>
+        <v>197</v>
       </c>
       <c r="L66" t="n">
-        <v>28.64951012768761</v>
+        <v>167</v>
       </c>
       <c r="M66" t="n">
-        <v>33.96768266636015</v>
+        <v>198</v>
       </c>
       <c r="N66" t="n">
-        <v>51.29463190526104</v>
+        <v>299</v>
       </c>
       <c r="O66" t="n">
-        <v>9.778575313043076</v>
+        <v>57</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.543985575743644</v>
+        <v>9</v>
       </c>
       <c r="R66" t="n">
-        <v>544.3406924260645</v>
+        <v>3173</v>
       </c>
       <c r="S66" t="n">
-        <v>267.795720415092</v>
+        <v>1561</v>
       </c>
       <c r="T66" t="n">
-        <v>48374.26896571837</v>
+        <v>281977</v>
       </c>
       <c r="U66" t="n">
-        <v>51625.73103428163</v>
+        <v>300930</v>
       </c>
       <c r="V66" t="n">
-        <v>100000</v>
+        <v>582907</v>
       </c>
     </row>
     <row r="67">
@@ -5102,67 +5102,67 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>75.95377876058335</v>
+        <v>632</v>
       </c>
       <c r="C67" t="n">
-        <v>102.6337453505351</v>
+        <v>854</v>
       </c>
       <c r="D67" t="n">
-        <v>153.2295378476958</v>
+        <v>1275</v>
       </c>
       <c r="E67" t="n">
-        <v>191.0862471983031</v>
+        <v>1590</v>
       </c>
       <c r="F67" t="n">
-        <v>292.2778321926245</v>
+        <v>2432</v>
       </c>
       <c r="G67" t="n">
-        <v>98.54762434126322</v>
+        <v>820</v>
       </c>
       <c r="H67" t="n">
-        <v>34.85220860849553</v>
+        <v>290</v>
       </c>
       <c r="I67" t="n">
-        <v>577.825582722919</v>
+        <v>4808</v>
       </c>
       <c r="J67" t="n">
-        <v>371.9571918734264</v>
+        <v>3095</v>
       </c>
       <c r="K67" t="n">
-        <v>39.29886970682082</v>
+        <v>327</v>
       </c>
       <c r="L67" t="n">
-        <v>27.52122679774302</v>
+        <v>229</v>
       </c>
       <c r="M67" t="n">
-        <v>30.40554751017023</v>
+        <v>253</v>
       </c>
       <c r="N67" t="n">
-        <v>131.3567724451228</v>
+        <v>1093</v>
       </c>
       <c r="O67" t="n">
-        <v>16.82520415582542</v>
+        <v>140</v>
       </c>
       <c r="P67" t="n">
-        <v>0.360540089053402</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.6009001484223366</v>
+        <v>5</v>
       </c>
       <c r="R67" t="n">
-        <v>686.9490496764153</v>
+        <v>5716</v>
       </c>
       <c r="S67" t="n">
-        <v>313.3093373874063</v>
+        <v>2607</v>
       </c>
       <c r="T67" t="n">
-        <v>48194.4753240354</v>
+        <v>401019</v>
       </c>
       <c r="U67" t="n">
-        <v>51805.5246759646</v>
+        <v>431066</v>
       </c>
       <c r="V67" t="n">
-        <v>100000</v>
+        <v>832085</v>
       </c>
     </row>
     <row r="68">
@@ -5172,67 +5172,67 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>83.86225321736275</v>
+        <v>899</v>
       </c>
       <c r="C68" t="n">
-        <v>146.1759185668603</v>
+        <v>1567</v>
       </c>
       <c r="D68" t="n">
-        <v>264.2733741543811</v>
+        <v>2833</v>
       </c>
       <c r="E68" t="n">
-        <v>384.702927996</v>
+        <v>4124</v>
       </c>
       <c r="F68" t="n">
-        <v>521.6437374766324</v>
+        <v>5592</v>
       </c>
       <c r="G68" t="n">
-        <v>218.4709644438972</v>
+        <v>2342</v>
       </c>
       <c r="H68" t="n">
-        <v>95.2428926973608</v>
+        <v>1021</v>
       </c>
       <c r="I68" t="n">
-        <v>627.8008500031716</v>
+        <v>6730</v>
       </c>
       <c r="J68" t="n">
-        <v>741.7005287333161</v>
+        <v>7951</v>
       </c>
       <c r="K68" t="n">
-        <v>53.17184019343355</v>
+        <v>570</v>
       </c>
       <c r="L68" t="n">
-        <v>32.55609162720756</v>
+        <v>349</v>
       </c>
       <c r="M68" t="n">
-        <v>27.14562367770029</v>
+        <v>291</v>
       </c>
       <c r="N68" t="n">
-        <v>132.83631655342</v>
+        <v>1424</v>
       </c>
       <c r="O68" t="n">
-        <v>17.25752708032493</v>
+        <v>185</v>
       </c>
       <c r="P68" t="n">
-        <v>0.4664196508195926</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.399258952458778</v>
+        <v>15</v>
       </c>
       <c r="R68" t="n">
-        <v>680.8794062664413</v>
+        <v>7299</v>
       </c>
       <c r="S68" t="n">
-        <v>361.4752293851843</v>
+        <v>3875</v>
       </c>
       <c r="T68" t="n">
-        <v>49174.90363770014</v>
+        <v>527153</v>
       </c>
       <c r="U68" t="n">
-        <v>50825.09636229986</v>
+        <v>544843</v>
       </c>
       <c r="V68" t="n">
-        <v>100000</v>
+        <v>1071996</v>
       </c>
     </row>
     <row r="69">
@@ -5242,67 +5242,67 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>41.93433781603639</v>
+        <v>576</v>
       </c>
       <c r="C69" t="n">
-        <v>376.0257896177569</v>
+        <v>5165</v>
       </c>
       <c r="D69" t="n">
-        <v>137.0146246003133</v>
+        <v>1882</v>
       </c>
       <c r="E69" t="n">
-        <v>233.3325567715219</v>
+        <v>3205</v>
       </c>
       <c r="F69" t="n">
-        <v>471.4700897511313</v>
+        <v>6476</v>
       </c>
       <c r="G69" t="n">
-        <v>198.8968939468948</v>
+        <v>2732</v>
       </c>
       <c r="H69" t="n">
-        <v>17.03582473776478</v>
+        <v>234</v>
       </c>
       <c r="I69" t="n">
-        <v>667.4548769052459</v>
+        <v>9168</v>
       </c>
       <c r="J69" t="n">
-        <v>372.6768668060595</v>
+        <v>5119</v>
       </c>
       <c r="K69" t="n">
-        <v>17.39983808686232</v>
+        <v>239</v>
       </c>
       <c r="L69" t="n">
-        <v>18.56468080397444</v>
+        <v>255</v>
       </c>
       <c r="M69" t="n">
-        <v>24.46169705935456</v>
+        <v>336</v>
       </c>
       <c r="N69" t="n">
-        <v>122.4540906364118</v>
+        <v>1682</v>
       </c>
       <c r="O69" t="n">
-        <v>10.33797911437008</v>
+        <v>142</v>
       </c>
       <c r="P69" t="n">
-        <v>0.1456053396390152</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.8008293680145838</v>
+        <v>11</v>
       </c>
       <c r="R69" t="n">
-        <v>489.3795465267302</v>
+        <v>6722</v>
       </c>
       <c r="S69" t="n">
-        <v>261.5799926614908</v>
+        <v>3593</v>
       </c>
       <c r="T69" t="n">
-        <v>49696.48566952247</v>
+        <v>682619</v>
       </c>
       <c r="U69" t="n">
-        <v>50303.51433047753</v>
+        <v>690957</v>
       </c>
       <c r="V69" t="n">
-        <v>100000</v>
+        <v>1373576</v>
       </c>
     </row>
     <row r="70">
@@ -5312,67 +5312,67 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>38.96474352376555</v>
+        <v>265</v>
       </c>
       <c r="C70" t="n">
-        <v>196.7351956030125</v>
+        <v>1338</v>
       </c>
       <c r="D70" t="n">
-        <v>100.8672228577478</v>
+        <v>686</v>
       </c>
       <c r="E70" t="n">
-        <v>168.6511729122984</v>
+        <v>1147</v>
       </c>
       <c r="F70" t="n">
-        <v>272.9002414343731</v>
+        <v>1856</v>
       </c>
       <c r="G70" t="n">
-        <v>108.8072083305151</v>
+        <v>740</v>
       </c>
       <c r="H70" t="n">
-        <v>46.75769222851866</v>
+        <v>318</v>
       </c>
       <c r="I70" t="n">
-        <v>484.4861506068207</v>
+        <v>3295</v>
       </c>
       <c r="J70" t="n">
-        <v>335.0967943043838</v>
+        <v>2279</v>
       </c>
       <c r="K70" t="n">
-        <v>16.61515478560569</v>
+        <v>113</v>
       </c>
       <c r="L70" t="n">
-        <v>102.7787008419325</v>
+        <v>699</v>
       </c>
       <c r="M70" t="n">
-        <v>39.99400089986502</v>
+        <v>272</v>
       </c>
       <c r="N70" t="n">
-        <v>105.5723994342025</v>
+        <v>718</v>
       </c>
       <c r="O70" t="n">
-        <v>6.910728096667853</v>
+        <v>47</v>
       </c>
       <c r="P70" t="n">
-        <v>0.4411103040426289</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>316.1290512305507</v>
+        <v>2150</v>
       </c>
       <c r="S70" t="n">
-        <v>260.6961896891937</v>
+        <v>1773</v>
       </c>
       <c r="T70" t="n">
-        <v>50541.38937982832</v>
+        <v>343733</v>
       </c>
       <c r="U70" t="n">
-        <v>49458.61062017168</v>
+        <v>336369</v>
       </c>
       <c r="V70" t="n">
-        <v>100000</v>
+        <v>680102</v>
       </c>
     </row>
     <row r="71">
@@ -5382,67 +5382,67 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>49.29423179243216</v>
+        <v>315</v>
       </c>
       <c r="C71" t="n">
-        <v>138.4933178930237</v>
+        <v>885</v>
       </c>
       <c r="D71" t="n">
-        <v>137.5543801445964</v>
+        <v>879</v>
       </c>
       <c r="E71" t="n">
-        <v>580.4200181527964</v>
+        <v>3709</v>
       </c>
       <c r="F71" t="n">
-        <v>382.6171324841163</v>
+        <v>2445</v>
       </c>
       <c r="G71" t="n">
-        <v>196.8639479202529</v>
+        <v>1258</v>
       </c>
       <c r="H71" t="n">
-        <v>68.3859660104535</v>
+        <v>437</v>
       </c>
       <c r="I71" t="n">
-        <v>610.3095364777315</v>
+        <v>3900</v>
       </c>
       <c r="J71" t="n">
-        <v>588.7139682639041</v>
+        <v>3762</v>
       </c>
       <c r="K71" t="n">
-        <v>8.137460486369754</v>
+        <v>52</v>
       </c>
       <c r="L71" t="n">
-        <v>12.83214922850615</v>
+        <v>82</v>
       </c>
       <c r="M71" t="n">
-        <v>27.69866357860474</v>
+        <v>177</v>
       </c>
       <c r="N71" t="n">
-        <v>124.5657412913524</v>
+        <v>796</v>
       </c>
       <c r="O71" t="n">
-        <v>21.43907858908954</v>
+        <v>137</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.9389377484272793</v>
+        <v>6</v>
       </c>
       <c r="R71" t="n">
-        <v>264.3109761822791</v>
+        <v>1689</v>
       </c>
       <c r="S71" t="n">
-        <v>315.326593846828</v>
+        <v>2015</v>
       </c>
       <c r="T71" t="n">
-        <v>48856.99978091452</v>
+        <v>312206</v>
       </c>
       <c r="U71" t="n">
-        <v>51143.00021908548</v>
+        <v>326814</v>
       </c>
       <c r="V71" t="n">
-        <v>100000</v>
+        <v>639020</v>
       </c>
     </row>
     <row r="72">
@@ -5452,46 +5452,46 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>74.16965100765397</v>
+        <v>169</v>
       </c>
       <c r="C72" t="n">
-        <v>216.8035952531424</v>
+        <v>494</v>
       </c>
       <c r="D72" t="n">
-        <v>178.6215855628116</v>
+        <v>407</v>
       </c>
       <c r="E72" t="n">
-        <v>204.9540060389018</v>
+        <v>467</v>
       </c>
       <c r="F72" t="n">
-        <v>334.4217400463451</v>
+        <v>762</v>
       </c>
       <c r="G72" t="n">
-        <v>150.5336703883154</v>
+        <v>343</v>
       </c>
       <c r="H72" t="n">
-        <v>45.20398848395477</v>
+        <v>103</v>
       </c>
       <c r="I72" t="n">
-        <v>639.000070219788</v>
+        <v>1456</v>
       </c>
       <c r="J72" t="n">
-        <v>429.6573274348712</v>
+        <v>979</v>
       </c>
       <c r="K72" t="n">
-        <v>46.08173583315778</v>
+        <v>105</v>
       </c>
       <c r="L72" t="n">
-        <v>77.68064040446598</v>
+        <v>177</v>
       </c>
       <c r="M72" t="n">
-        <v>26.33242047609016</v>
+        <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>106.6463029281652</v>
+        <v>243</v>
       </c>
       <c r="O72" t="n">
-        <v>15.7994522856541</v>
+        <v>36</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -5500,19 +5500,19 @@
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>567.9025349343444</v>
+        <v>1294</v>
       </c>
       <c r="S72" t="n">
-        <v>356.3654237764202</v>
+        <v>812</v>
       </c>
       <c r="T72" t="n">
-        <v>49448.77466470051</v>
+        <v>112672</v>
       </c>
       <c r="U72" t="n">
-        <v>50551.22533529949</v>
+        <v>115184</v>
       </c>
       <c r="V72" t="n">
-        <v>100000</v>
+        <v>227856</v>
       </c>
     </row>
     <row r="73">
@@ -5522,67 +5522,67 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>64.37875041005999</v>
+        <v>1203</v>
       </c>
       <c r="C73" t="n">
-        <v>219.7868062627734</v>
+        <v>4107</v>
       </c>
       <c r="D73" t="n">
-        <v>144.3839306785884</v>
+        <v>2698</v>
       </c>
       <c r="E73" t="n">
-        <v>196.0795856213299</v>
+        <v>3664</v>
       </c>
       <c r="F73" t="n">
-        <v>380.6534095318011</v>
+        <v>7113</v>
       </c>
       <c r="G73" t="n">
-        <v>146.3639919962711</v>
+        <v>2735</v>
       </c>
       <c r="H73" t="n">
-        <v>25.52673644688165</v>
+        <v>477</v>
       </c>
       <c r="I73" t="n">
-        <v>445.888402673832</v>
+        <v>8332</v>
       </c>
       <c r="J73" t="n">
-        <v>585.1883921313434</v>
+        <v>10935</v>
       </c>
       <c r="K73" t="n">
-        <v>21.62012898226454</v>
+        <v>404</v>
       </c>
       <c r="L73" t="n">
-        <v>10.86357966188045</v>
+        <v>203</v>
       </c>
       <c r="M73" t="n">
-        <v>20.44279522580459</v>
+        <v>382</v>
       </c>
       <c r="N73" t="n">
-        <v>189.7647954730447</v>
+        <v>3546</v>
       </c>
       <c r="O73" t="n">
-        <v>3.371455757135312</v>
+        <v>63</v>
       </c>
       <c r="P73" t="n">
-        <v>0.05351517074817954</v>
+        <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.4281213659854363</v>
+        <v>8</v>
       </c>
       <c r="R73" t="n">
-        <v>571.1139022245721</v>
+        <v>10672</v>
       </c>
       <c r="S73" t="n">
-        <v>407.6785707596318</v>
+        <v>7618</v>
       </c>
       <c r="T73" t="n">
-        <v>49849.27452158775</v>
+        <v>931498</v>
       </c>
       <c r="U73" t="n">
-        <v>50150.72547841225</v>
+        <v>937131</v>
       </c>
       <c r="V73" t="n">
-        <v>100000</v>
+        <v>1868629</v>
       </c>
     </row>
     <row r="74">
@@ -5592,67 +5592,67 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>45.66449515150507</v>
+        <v>714</v>
       </c>
       <c r="C74" t="n">
-        <v>193.6583912027414</v>
+        <v>3028</v>
       </c>
       <c r="D74" t="n">
-        <v>187.7104947754445</v>
+        <v>2935</v>
       </c>
       <c r="E74" t="n">
-        <v>154.5813512341565</v>
+        <v>2417</v>
       </c>
       <c r="F74" t="n">
-        <v>413.0270443815403</v>
+        <v>6458</v>
       </c>
       <c r="G74" t="n">
-        <v>114.0972820032003</v>
+        <v>1784</v>
       </c>
       <c r="H74" t="n">
-        <v>33.96056992359831</v>
+        <v>531</v>
       </c>
       <c r="I74" t="n">
-        <v>282.0454112298843</v>
+        <v>4410</v>
       </c>
       <c r="J74" t="n">
-        <v>285.8827637636242</v>
+        <v>4470</v>
       </c>
       <c r="K74" t="n">
-        <v>19.44258617094894</v>
+        <v>304</v>
       </c>
       <c r="L74" t="n">
-        <v>9.209646080975814</v>
+        <v>144</v>
       </c>
       <c r="M74" t="n">
-        <v>25.51839434937049</v>
+        <v>399</v>
       </c>
       <c r="N74" t="n">
-        <v>34.98386393259562</v>
+        <v>547</v>
       </c>
       <c r="O74" t="n">
-        <v>4.796690667174903</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
-        <v>0.06395587556233204</v>
+        <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.1918676266869961</v>
+        <v>3</v>
       </c>
       <c r="R74" t="n">
-        <v>347.1524925523383</v>
+        <v>5428</v>
       </c>
       <c r="S74" t="n">
-        <v>273.8590591579058</v>
+        <v>4282</v>
       </c>
       <c r="T74" t="n">
-        <v>49429.25776648175</v>
+        <v>772865</v>
       </c>
       <c r="U74" t="n">
-        <v>50570.74223351825</v>
+        <v>790713</v>
       </c>
       <c r="V74" t="n">
-        <v>100000</v>
+        <v>1563578</v>
       </c>
     </row>
     <row r="75">
@@ -5662,67 +5662,67 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>73.99824870811391</v>
+        <v>240</v>
       </c>
       <c r="C75" t="n">
-        <v>309.2510143926594</v>
+        <v>1003</v>
       </c>
       <c r="D75" t="n">
-        <v>403.9071075317884</v>
+        <v>1310</v>
       </c>
       <c r="E75" t="n">
-        <v>253.4440018252901</v>
+        <v>822</v>
       </c>
       <c r="F75" t="n">
-        <v>316.342513227187</v>
+        <v>1026</v>
       </c>
       <c r="G75" t="n">
-        <v>199.7952715119075</v>
+        <v>648</v>
       </c>
       <c r="H75" t="n">
-        <v>28.05766930182652</v>
+        <v>91</v>
       </c>
       <c r="I75" t="n">
-        <v>628.0601359101169</v>
+        <v>2037</v>
       </c>
       <c r="J75" t="n">
-        <v>541.4205197143668</v>
+        <v>1756</v>
       </c>
       <c r="K75" t="n">
-        <v>42.24066697088169</v>
+        <v>137</v>
       </c>
       <c r="L75" t="n">
-        <v>11.40806334250089</v>
+        <v>37</v>
       </c>
       <c r="M75" t="n">
-        <v>19.11621424959609</v>
+        <v>62</v>
       </c>
       <c r="N75" t="n">
-        <v>72.76494456297868</v>
+        <v>236</v>
       </c>
       <c r="O75" t="n">
-        <v>13.87467163277136</v>
+        <v>45</v>
       </c>
       <c r="P75" t="n">
-        <v>0.9249781088514238</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.9249781088514238</v>
+        <v>3</v>
       </c>
       <c r="R75" t="n">
-        <v>1693.943243343241</v>
+        <v>5494</v>
       </c>
       <c r="S75" t="n">
-        <v>337.3086836944859</v>
+        <v>1094</v>
       </c>
       <c r="T75" t="n">
-        <v>48849.01890655254</v>
+        <v>158433</v>
       </c>
       <c r="U75" t="n">
-        <v>51150.98109344746</v>
+        <v>165899</v>
       </c>
       <c r="V75" t="n">
-        <v>100000</v>
+        <v>324332</v>
       </c>
     </row>
     <row r="76">
@@ -5732,67 +5732,67 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>111.6966175742017</v>
+        <v>496</v>
       </c>
       <c r="C76" t="n">
-        <v>235.5537539972076</v>
+        <v>1046</v>
       </c>
       <c r="D76" t="n">
-        <v>253.7945322704139</v>
+        <v>1127</v>
       </c>
       <c r="E76" t="n">
-        <v>204.7020672882043</v>
+        <v>909</v>
       </c>
       <c r="F76" t="n">
-        <v>382.8311489438364</v>
+        <v>1700</v>
       </c>
       <c r="G76" t="n">
-        <v>119.8036301400712</v>
+        <v>532</v>
       </c>
       <c r="H76" t="n">
-        <v>70.2607755708688</v>
+        <v>312</v>
       </c>
       <c r="I76" t="n">
-        <v>878.0344998423636</v>
+        <v>3899</v>
       </c>
       <c r="J76" t="n">
-        <v>402.6482907715173</v>
+        <v>1788</v>
       </c>
       <c r="K76" t="n">
-        <v>60.5773994505247</v>
+        <v>269</v>
       </c>
       <c r="L76" t="n">
-        <v>105.6163581497996</v>
+        <v>469</v>
       </c>
       <c r="M76" t="n">
-        <v>64.85610052695581</v>
+        <v>288</v>
       </c>
       <c r="N76" t="n">
-        <v>422.0150430122056</v>
+        <v>1874</v>
       </c>
       <c r="O76" t="n">
-        <v>9.458181326847724</v>
+        <v>42</v>
       </c>
       <c r="P76" t="n">
-        <v>2.477142728460118</v>
+        <v>11</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.4503895869927487</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>572.2199702742872</v>
+        <v>2541</v>
       </c>
       <c r="S76" t="n">
-        <v>376.9760843129307</v>
+        <v>1674</v>
       </c>
       <c r="T76" t="n">
-        <v>48681.48448407873</v>
+        <v>216175</v>
       </c>
       <c r="U76" t="n">
-        <v>51318.51551592127</v>
+        <v>227885</v>
       </c>
       <c r="V76" t="n">
-        <v>100000</v>
+        <v>444060</v>
       </c>
     </row>
     <row r="77">
@@ -5802,67 +5802,67 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>23.88832026519711</v>
+        <v>130</v>
       </c>
       <c r="C77" t="n">
-        <v>25.72588336251996</v>
+        <v>140</v>
       </c>
       <c r="D77" t="n">
-        <v>50.5329851763785</v>
+        <v>275</v>
       </c>
       <c r="E77" t="n">
-        <v>133.0395682461746</v>
+        <v>724</v>
       </c>
       <c r="F77" t="n">
-        <v>329.4750633499878</v>
+        <v>1793</v>
       </c>
       <c r="G77" t="n">
-        <v>100.6984577332924</v>
+        <v>548</v>
       </c>
       <c r="H77" t="n">
-        <v>56.96445601700848</v>
+        <v>310</v>
       </c>
       <c r="I77" t="n">
-        <v>427.0496638178313</v>
+        <v>2324</v>
       </c>
       <c r="J77" t="n">
-        <v>456.450673374997</v>
+        <v>2484</v>
       </c>
       <c r="K77" t="n">
-        <v>30.3197911058271</v>
+        <v>165</v>
       </c>
       <c r="L77" t="n">
-        <v>29.95227848636252</v>
+        <v>163</v>
       </c>
       <c r="M77" t="n">
-        <v>46.49034636226821</v>
+        <v>253</v>
       </c>
       <c r="N77" t="n">
-        <v>90.95937331748128</v>
+        <v>495</v>
       </c>
       <c r="O77" t="n">
-        <v>3.123857265448852</v>
+        <v>17</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.286294168125998</v>
+        <v>7</v>
       </c>
       <c r="R77" t="n">
-        <v>374.67911554413</v>
+        <v>2039</v>
       </c>
       <c r="S77" t="n">
-        <v>219.5887901300811</v>
+        <v>1195</v>
       </c>
       <c r="T77" t="n">
-        <v>49738.60664940583</v>
+        <v>270677</v>
       </c>
       <c r="U77" t="n">
-        <v>50261.39335059417</v>
+        <v>273522</v>
       </c>
       <c r="V77" t="n">
-        <v>100000</v>
+        <v>544199</v>
       </c>
     </row>
     <row r="78">
@@ -5872,67 +5872,67 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>29.6892586892756</v>
+        <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>357.9622645763925</v>
+        <v>1905</v>
       </c>
       <c r="D78" t="n">
-        <v>279.6051704407727</v>
+        <v>1488</v>
       </c>
       <c r="E78" t="n">
-        <v>407.9454469266919</v>
+        <v>2171</v>
       </c>
       <c r="F78" t="n">
-        <v>673.645521525652</v>
+        <v>3585</v>
       </c>
       <c r="G78" t="n">
-        <v>298.2079337967112</v>
+        <v>1587</v>
       </c>
       <c r="H78" t="n">
-        <v>29.1255385875805</v>
+        <v>155</v>
       </c>
       <c r="I78" t="n">
-        <v>593.973080486077</v>
+        <v>3161</v>
       </c>
       <c r="J78" t="n">
-        <v>443.4598133334837</v>
+        <v>2360</v>
       </c>
       <c r="K78" t="n">
-        <v>80.42406784183517</v>
+        <v>428</v>
       </c>
       <c r="L78" t="n">
-        <v>43.21854112995815</v>
+        <v>230</v>
       </c>
       <c r="M78" t="n">
-        <v>33.44739270057631</v>
+        <v>178</v>
       </c>
       <c r="N78" t="n">
-        <v>259.499153480314</v>
+        <v>1381</v>
       </c>
       <c r="O78" t="n">
-        <v>5.261387615820992</v>
+        <v>28</v>
       </c>
       <c r="P78" t="n">
-        <v>0.5637201016951063</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>332.7827667006778</v>
+        <v>1771</v>
       </c>
       <c r="S78" t="n">
-        <v>355.8952908701772</v>
+        <v>1894</v>
       </c>
       <c r="T78" t="n">
-        <v>49821.77049451406</v>
+        <v>265141</v>
       </c>
       <c r="U78" t="n">
-        <v>50178.22950548594</v>
+        <v>267038</v>
       </c>
       <c r="V78" t="n">
-        <v>100000</v>
+        <v>532179</v>
       </c>
     </row>
   </sheetData>
